--- a/empresas.xlsx
+++ b/empresas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Programas sin finalizar\ScrapingPY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Programas sin finalizar\ScrapingSUNAT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F5C6F1-291D-4488-BE4C-792A82C28CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F972821-F1EE-48A8-9761-3083C5F06899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4B4C5AA1-E11C-494E-965B-EC1DE9B609BF}"/>
   </bookViews>
@@ -37,45 +37,252 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>razon_social</t>
   </si>
   <si>
-    <t>TAITA PRODUCCIONES CD S.A.C.</t>
-  </si>
-  <si>
-    <t>TIENDA DE CAMPAÑA PE S.A.C.</t>
-  </si>
-  <si>
-    <t>TREND ADS STUDIO S.A.C.S</t>
-  </si>
-  <si>
-    <t>UNISONO PERU E.I.R.L.</t>
-  </si>
-  <si>
-    <t>WALLQA AUDIOVISUALES S.A.C.</t>
-  </si>
-  <si>
-    <t>CORPORACIÓN SELVÁTICA S.A.C.</t>
-  </si>
-  <si>
-    <t>C &amp; T COMUNICACION INTEGRAL S.A.C.S.</t>
-  </si>
-  <si>
-    <t>BRANDVIP S.A.C.</t>
-  </si>
-  <si>
-    <t>HUANCAYO PRODUCCIONES S.A.C.</t>
-  </si>
-  <si>
-    <t>MASAVA PRODUCCIONES Y SERVICIOS E.I.R.L.</t>
-  </si>
-  <si>
-    <t>EMPRESA RADIODIFUSORA SWING E.I.R.L.</t>
-  </si>
-  <si>
-    <t>GOOD DIGITAL S.A.C.</t>
+    <t>GRUPO MAGO PUBLICIDAD E.I.R.L.</t>
+  </si>
+  <si>
+    <t>GRUPO PUBLIARTS S.A.C.</t>
+  </si>
+  <si>
+    <t>GRUPO PUBLICITARIO AG E.I.R.L.</t>
+  </si>
+  <si>
+    <t>GRUPO S &amp; A MEDIOS VISUALES E.I.R.L.</t>
+  </si>
+  <si>
+    <t>GRUPO SIGMA STUDIO S.A.C</t>
+  </si>
+  <si>
+    <t>GUERREROS GRAFICOS E.I.R.L</t>
+  </si>
+  <si>
+    <t>GURU SERVICIOS S.A.C.</t>
+  </si>
+  <si>
+    <t>HAPPYBRIEF S.A.C.</t>
+  </si>
+  <si>
+    <t>ICARO DESIGN S.A.C.</t>
+  </si>
+  <si>
+    <t>IDEAS &amp; COMUNICACIONES PUBLICITARIAS S.A.C.</t>
+  </si>
+  <si>
+    <t>ILUSTRADORES ASOCIADOS AAP 01 EMPRESA INDIVIDUAL DE RESPONSABILIDAD LIMITADA</t>
+  </si>
+  <si>
+    <t>IMAGE &amp; MANAGEMENT S.A.C.</t>
+  </si>
+  <si>
+    <t>IMPORTACIONES &amp; EXPORTACIONES ALISHA PERU S.A.C.</t>
+  </si>
+  <si>
+    <t>IMPRESSARIA E.I.R.L.</t>
+  </si>
+  <si>
+    <t>INVERSIONES DIAMINES PERU E.I.R.L.</t>
+  </si>
+  <si>
+    <t>INVERSIONES RMS S.A.C.</t>
+  </si>
+  <si>
+    <t>JEMASHI S.A.C.</t>
+  </si>
+  <si>
+    <t>JFC SOLUTIONS E.I.R.L.</t>
+  </si>
+  <si>
+    <t>JOHANA PUBLICIDAD E.I.R.L.</t>
+  </si>
+  <si>
+    <t>KAFKA COMUNICACIONES Y CONTENIDO S.A.C.</t>
+  </si>
+  <si>
+    <t>KMS MULTISERVICIOS S.A.C.</t>
+  </si>
+  <si>
+    <t>KYODAI BTL S.A.C.</t>
+  </si>
+  <si>
+    <t>LA MARKA ENTRETENIMIENTO E.I.R.L.</t>
+  </si>
+  <si>
+    <t>LANYARDS PERU S.A.C.</t>
+  </si>
+  <si>
+    <t>LAS CREADORAS MKT E.I.R.L.</t>
+  </si>
+  <si>
+    <t>LAYSA S.A.C.</t>
+  </si>
+  <si>
+    <t>LOLOZHOP E.I.R.L.</t>
+  </si>
+  <si>
+    <t>LRYC INVERSIONES Y SOLUCIONES E.I.R.L.</t>
+  </si>
+  <si>
+    <t>LUCAPAGO S.A.C.</t>
+  </si>
+  <si>
+    <t>M Y N CONTRATISTAS GENERALES S.R.L.</t>
+  </si>
+  <si>
+    <t>MAFERCHIC E.I.R.L.</t>
+  </si>
+  <si>
+    <t>MAGIC COLOR S.A.C.</t>
+  </si>
+  <si>
+    <t>MAR PUBLICIDAD S.A.C.</t>
+  </si>
+  <si>
+    <t>MAREA CREATIVA S.A.C.</t>
+  </si>
+  <si>
+    <t>MARKETEANDO GROUP S.A.C.</t>
+  </si>
+  <si>
+    <t>MARKETING CREATIVO 360 E.I.R.L.</t>
+  </si>
+  <si>
+    <t>MAS QUE IDEAS S.A.C.</t>
+  </si>
+  <si>
+    <t>MELACRIL PUBLICIDAD S.A.C.</t>
+  </si>
+  <si>
+    <t>MERCH AND CRAFT S.A.C.</t>
+  </si>
+  <si>
+    <t>MID CONSULTORES S.A.C.</t>
+  </si>
+  <si>
+    <t>MILLONES VIRAL S.A.C.</t>
+  </si>
+  <si>
+    <t>MKD DIGITAL COMPANY E.I.R.L.</t>
+  </si>
+  <si>
+    <t>MKT 3000 E.I.R.L.</t>
+  </si>
+  <si>
+    <t>MKT IDEAS S.A.C.</t>
+  </si>
+  <si>
+    <t>MODE TRILOGY E.I.R.L.</t>
+  </si>
+  <si>
+    <t>MONONAS RYN S.A.C.</t>
+  </si>
+  <si>
+    <t>MRS IMAGEN SIN LIMITES E.I.R.L.</t>
+  </si>
+  <si>
+    <t>NEURO-IDEAS E.I.R.L.</t>
+  </si>
+  <si>
+    <t>NEW TIMES E.I.R.L.</t>
+  </si>
+  <si>
+    <t>NOVUM PUBLICIDAD S.A.C.</t>
+  </si>
+  <si>
+    <t>NUBE MARKETING PERU E.I.R.L.</t>
+  </si>
+  <si>
+    <t>OLSAK E.I.R.L.</t>
+  </si>
+  <si>
+    <t>PAKATNAMU PERU SOCIEDAD ANONIMA CERRADA - PAKATNAMU PERU S.A.C.</t>
+  </si>
+  <si>
+    <t>PAPA PIRATA E.I.R.L.</t>
+  </si>
+  <si>
+    <t>PEKAR S.A.C.</t>
+  </si>
+  <si>
+    <t>PLASMA STUDIO SOCIEDAD ANONIMA CERRADA</t>
+  </si>
+  <si>
+    <t>POP COMUNICACIONES 4.0 S.A.C.</t>
+  </si>
+  <si>
+    <t>PROLIM SOLUTIONS SOCIEDAD ANONIMA CERRADA - PROLIM SOLUTIONS S.A.C.</t>
+  </si>
+  <si>
+    <t>PROYECTO GAMARRA E.I.R.L.</t>
+  </si>
+  <si>
+    <t>PROYECTOS Y SERVICIOS EL ROBLE S.A.C.</t>
+  </si>
+  <si>
+    <t>PUBLICIDAD Y VENTAS S &amp; M E.I.R.L. - PUBLIVENTAS S &amp; M E.I.R.L.</t>
+  </si>
+  <si>
+    <t>PUBLINGENIO ARQUITECTURA PUBLICITARIA S.A.C.</t>
+  </si>
+  <si>
+    <t>PUBLIPOINT SERVICE S.A.C.</t>
+  </si>
+  <si>
+    <t>PUBLISMERK S.A.C.</t>
+  </si>
+  <si>
+    <t>PUNT PUBLICIDAD &amp; TEXTIL S.A.C.</t>
+  </si>
+  <si>
+    <t>QALLPA MERCH S.A.C.</t>
+  </si>
+  <si>
+    <t>QUANTISCOPE S.A.C.</t>
+  </si>
+  <si>
+    <t>QUENACHO PRODUCCIONES E.I.R.L.</t>
+  </si>
+  <si>
+    <t>R C PUBLICIDAD EMPRESA INDIVIDUAL DE RESPONSABILIDAD LIMITADA</t>
+  </si>
+  <si>
+    <t>RACSO PUBLICIDAD STRATEGICA SOCIEDAD ANONIMA CERRADA</t>
+  </si>
+  <si>
+    <t>SERVICIOS GENERALES ABEILLE S.A.C.</t>
+  </si>
+  <si>
+    <t>SERVICIOS INTEGRALES DE INNOVACION H.Q. S.A.C.</t>
+  </si>
+  <si>
+    <t>SG PROJECT SOCIEDAD ANONIMA CERRADA</t>
+  </si>
+  <si>
+    <t>SKILL PUBLICIDAD E.I.R.L.</t>
+  </si>
+  <si>
+    <t>SMART GRAPHIC E.I.R.L.</t>
+  </si>
+  <si>
+    <t>SOLISMAN E.I.R.L.</t>
+  </si>
+  <si>
+    <t>SPEEDYMEN´S S.A.C.</t>
+  </si>
+  <si>
+    <t>SR ZETA S.A.C.</t>
+  </si>
+  <si>
+    <t>SURNEX S.A.C.</t>
+  </si>
+  <si>
+    <t>TEN SOLUCIONES &amp; SERVICIOS E.I.R.L.</t>
+  </si>
+  <si>
+    <t>TIME MARK S.A.C.</t>
   </si>
 </sst>
 </file>
@@ -126,10 +333,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -445,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F5111E-E63C-42FC-90AA-352ED2BE978B}">
-  <dimension ref="B1:B16"/>
+  <dimension ref="B1:B151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,7 +686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -491,7 +701,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
@@ -506,13 +716,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
+    <row r="11" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
+    <row r="12" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -522,13 +732,556 @@
       </c>
     </row>
     <row r="14" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="1"/>
+      <c r="B14" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="15" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="1"/>
+    </row>
+    <row r="84" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="1"/>
+    </row>
+    <row r="85" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="1"/>
+    </row>
+    <row r="86" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="1"/>
+    </row>
+    <row r="87" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="2"/>
+    </row>
+    <row r="88" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="1"/>
+    </row>
+    <row r="89" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="1"/>
+    </row>
+    <row r="90" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="1"/>
+    </row>
+    <row r="91" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="1"/>
+    </row>
+    <row r="92" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="2"/>
+    </row>
+    <row r="93" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="1"/>
+    </row>
+    <row r="94" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="2"/>
+    </row>
+    <row r="95" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="1"/>
+    </row>
+    <row r="96" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="2"/>
+    </row>
+    <row r="97" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="1"/>
+    </row>
+    <row r="98" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="1"/>
+    </row>
+    <row r="99" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="1"/>
+    </row>
+    <row r="100" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="1"/>
+    </row>
+    <row r="101" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="1"/>
+    </row>
+    <row r="102" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="1"/>
+    </row>
+    <row r="103" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="1"/>
+    </row>
+    <row r="104" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="1"/>
+    </row>
+    <row r="105" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="1"/>
+    </row>
+    <row r="106" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="2"/>
+    </row>
+    <row r="107" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="1"/>
+    </row>
+    <row r="108" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="1"/>
+    </row>
+    <row r="109" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="2"/>
+    </row>
+    <row r="110" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="1"/>
+    </row>
+    <row r="111" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="2"/>
+    </row>
+    <row r="112" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="1"/>
+    </row>
+    <row r="113" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="2"/>
+    </row>
+    <row r="114" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B114" s="1"/>
+    </row>
+    <row r="115" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B115" s="1"/>
+    </row>
+    <row r="116" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="1"/>
+    </row>
+    <row r="117" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="1"/>
+    </row>
+    <row r="118" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B118" s="1"/>
+    </row>
+    <row r="119" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B119" s="1"/>
+    </row>
+    <row r="120" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="2"/>
+    </row>
+    <row r="121" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="2"/>
+    </row>
+    <row r="122" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="1"/>
+    </row>
+    <row r="123" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B123" s="1"/>
+    </row>
+    <row r="124" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="1"/>
+    </row>
+    <row r="125" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B125" s="1"/>
+    </row>
+    <row r="126" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B126" s="1"/>
+    </row>
+    <row r="127" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B127" s="2"/>
+    </row>
+    <row r="128" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B128" s="2"/>
+    </row>
+    <row r="129" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B129" s="2"/>
+    </row>
+    <row r="130" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B130" s="1"/>
+    </row>
+    <row r="131" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B131" s="1"/>
+    </row>
+    <row r="132" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B132" s="1"/>
+    </row>
+    <row r="133" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B133" s="1"/>
+    </row>
+    <row r="134" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B134" s="1"/>
+    </row>
+    <row r="135" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B135" s="1"/>
+    </row>
+    <row r="136" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B136" s="1"/>
+    </row>
+    <row r="137" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B137" s="1"/>
+    </row>
+    <row r="138" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B138" s="2"/>
+    </row>
+    <row r="139" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B139" s="1"/>
+    </row>
+    <row r="140" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B140" s="1"/>
+    </row>
+    <row r="141" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B141" s="1"/>
+    </row>
+    <row r="142" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B142" s="1"/>
+    </row>
+    <row r="143" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B143" s="1"/>
+    </row>
+    <row r="144" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B144" s="1"/>
+    </row>
+    <row r="145" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B145" s="1"/>
+    </row>
+    <row r="146" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B146" s="1"/>
+    </row>
+    <row r="147" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B147" s="1"/>
+    </row>
+    <row r="148" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B148" s="1"/>
+    </row>
+    <row r="149" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B149" s="1"/>
+    </row>
+    <row r="150" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B150" s="1"/>
+    </row>
+    <row r="151" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B151" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/empresas.xlsx
+++ b/empresas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Programas sin finalizar\ScrapingSUNAT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F972821-F1EE-48A8-9761-3083C5F06899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CF5B2B-3713-441A-AEEA-788B947C4CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4B4C5AA1-E11C-494E-965B-EC1DE9B609BF}"/>
   </bookViews>
@@ -37,252 +37,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>razon_social</t>
   </si>
   <si>
-    <t>GRUPO MAGO PUBLICIDAD E.I.R.L.</t>
-  </si>
-  <si>
-    <t>GRUPO PUBLIARTS S.A.C.</t>
-  </si>
-  <si>
-    <t>GRUPO PUBLICITARIO AG E.I.R.L.</t>
-  </si>
-  <si>
-    <t>GRUPO S &amp; A MEDIOS VISUALES E.I.R.L.</t>
-  </si>
-  <si>
-    <t>GRUPO SIGMA STUDIO S.A.C</t>
-  </si>
-  <si>
-    <t>GUERREROS GRAFICOS E.I.R.L</t>
-  </si>
-  <si>
-    <t>GURU SERVICIOS S.A.C.</t>
-  </si>
-  <si>
-    <t>HAPPYBRIEF S.A.C.</t>
-  </si>
-  <si>
-    <t>ICARO DESIGN S.A.C.</t>
-  </si>
-  <si>
-    <t>IDEAS &amp; COMUNICACIONES PUBLICITARIAS S.A.C.</t>
-  </si>
-  <si>
-    <t>ILUSTRADORES ASOCIADOS AAP 01 EMPRESA INDIVIDUAL DE RESPONSABILIDAD LIMITADA</t>
-  </si>
-  <si>
-    <t>IMAGE &amp; MANAGEMENT S.A.C.</t>
-  </si>
-  <si>
-    <t>IMPORTACIONES &amp; EXPORTACIONES ALISHA PERU S.A.C.</t>
-  </si>
-  <si>
-    <t>IMPRESSARIA E.I.R.L.</t>
-  </si>
-  <si>
-    <t>INVERSIONES DIAMINES PERU E.I.R.L.</t>
-  </si>
-  <si>
-    <t>INVERSIONES RMS S.A.C.</t>
-  </si>
-  <si>
-    <t>JEMASHI S.A.C.</t>
-  </si>
-  <si>
-    <t>JFC SOLUTIONS E.I.R.L.</t>
-  </si>
-  <si>
-    <t>JOHANA PUBLICIDAD E.I.R.L.</t>
-  </si>
-  <si>
-    <t>KAFKA COMUNICACIONES Y CONTENIDO S.A.C.</t>
-  </si>
-  <si>
-    <t>KMS MULTISERVICIOS S.A.C.</t>
-  </si>
-  <si>
-    <t>KYODAI BTL S.A.C.</t>
-  </si>
-  <si>
-    <t>LA MARKA ENTRETENIMIENTO E.I.R.L.</t>
-  </si>
-  <si>
-    <t>LANYARDS PERU S.A.C.</t>
-  </si>
-  <si>
-    <t>LAS CREADORAS MKT E.I.R.L.</t>
-  </si>
-  <si>
-    <t>LAYSA S.A.C.</t>
-  </si>
-  <si>
-    <t>LOLOZHOP E.I.R.L.</t>
-  </si>
-  <si>
-    <t>LRYC INVERSIONES Y SOLUCIONES E.I.R.L.</t>
-  </si>
-  <si>
-    <t>LUCAPAGO S.A.C.</t>
-  </si>
-  <si>
-    <t>M Y N CONTRATISTAS GENERALES S.R.L.</t>
-  </si>
-  <si>
-    <t>MAFERCHIC E.I.R.L.</t>
-  </si>
-  <si>
-    <t>MAGIC COLOR S.A.C.</t>
-  </si>
-  <si>
-    <t>MAR PUBLICIDAD S.A.C.</t>
-  </si>
-  <si>
-    <t>MAREA CREATIVA S.A.C.</t>
-  </si>
-  <si>
-    <t>MARKETEANDO GROUP S.A.C.</t>
-  </si>
-  <si>
-    <t>MARKETING CREATIVO 360 E.I.R.L.</t>
-  </si>
-  <si>
-    <t>MAS QUE IDEAS S.A.C.</t>
-  </si>
-  <si>
-    <t>MELACRIL PUBLICIDAD S.A.C.</t>
-  </si>
-  <si>
-    <t>MERCH AND CRAFT S.A.C.</t>
-  </si>
-  <si>
-    <t>MID CONSULTORES S.A.C.</t>
-  </si>
-  <si>
-    <t>MILLONES VIRAL S.A.C.</t>
-  </si>
-  <si>
-    <t>MKD DIGITAL COMPANY E.I.R.L.</t>
-  </si>
-  <si>
-    <t>MKT 3000 E.I.R.L.</t>
-  </si>
-  <si>
-    <t>MKT IDEAS S.A.C.</t>
-  </si>
-  <si>
-    <t>MODE TRILOGY E.I.R.L.</t>
-  </si>
-  <si>
-    <t>MONONAS RYN S.A.C.</t>
-  </si>
-  <si>
-    <t>MRS IMAGEN SIN LIMITES E.I.R.L.</t>
-  </si>
-  <si>
-    <t>NEURO-IDEAS E.I.R.L.</t>
-  </si>
-  <si>
-    <t>NEW TIMES E.I.R.L.</t>
-  </si>
-  <si>
-    <t>NOVUM PUBLICIDAD S.A.C.</t>
-  </si>
-  <si>
-    <t>NUBE MARKETING PERU E.I.R.L.</t>
-  </si>
-  <si>
-    <t>OLSAK E.I.R.L.</t>
-  </si>
-  <si>
-    <t>PAKATNAMU PERU SOCIEDAD ANONIMA CERRADA - PAKATNAMU PERU S.A.C.</t>
-  </si>
-  <si>
-    <t>PAPA PIRATA E.I.R.L.</t>
-  </si>
-  <si>
-    <t>PEKAR S.A.C.</t>
-  </si>
-  <si>
-    <t>PLASMA STUDIO SOCIEDAD ANONIMA CERRADA</t>
-  </si>
-  <si>
-    <t>POP COMUNICACIONES 4.0 S.A.C.</t>
-  </si>
-  <si>
-    <t>PROLIM SOLUTIONS SOCIEDAD ANONIMA CERRADA - PROLIM SOLUTIONS S.A.C.</t>
-  </si>
-  <si>
-    <t>PROYECTO GAMARRA E.I.R.L.</t>
-  </si>
-  <si>
-    <t>PROYECTOS Y SERVICIOS EL ROBLE S.A.C.</t>
-  </si>
-  <si>
-    <t>PUBLICIDAD Y VENTAS S &amp; M E.I.R.L. - PUBLIVENTAS S &amp; M E.I.R.L.</t>
-  </si>
-  <si>
-    <t>PUBLINGENIO ARQUITECTURA PUBLICITARIA S.A.C.</t>
-  </si>
-  <si>
-    <t>PUBLIPOINT SERVICE S.A.C.</t>
-  </si>
-  <si>
-    <t>PUBLISMERK S.A.C.</t>
-  </si>
-  <si>
-    <t>PUNT PUBLICIDAD &amp; TEXTIL S.A.C.</t>
-  </si>
-  <si>
-    <t>QALLPA MERCH S.A.C.</t>
-  </si>
-  <si>
-    <t>QUANTISCOPE S.A.C.</t>
-  </si>
-  <si>
-    <t>QUENACHO PRODUCCIONES E.I.R.L.</t>
-  </si>
-  <si>
-    <t>R C PUBLICIDAD EMPRESA INDIVIDUAL DE RESPONSABILIDAD LIMITADA</t>
-  </si>
-  <si>
-    <t>RACSO PUBLICIDAD STRATEGICA SOCIEDAD ANONIMA CERRADA</t>
-  </si>
-  <si>
-    <t>SERVICIOS GENERALES ABEILLE S.A.C.</t>
-  </si>
-  <si>
-    <t>SERVICIOS INTEGRALES DE INNOVACION H.Q. S.A.C.</t>
-  </si>
-  <si>
-    <t>SG PROJECT SOCIEDAD ANONIMA CERRADA</t>
-  </si>
-  <si>
-    <t>SKILL PUBLICIDAD E.I.R.L.</t>
-  </si>
-  <si>
-    <t>SMART GRAPHIC E.I.R.L.</t>
-  </si>
-  <si>
-    <t>SOLISMAN E.I.R.L.</t>
-  </si>
-  <si>
-    <t>SPEEDYMEN´S S.A.C.</t>
-  </si>
-  <si>
-    <t>SR ZETA S.A.C.</t>
-  </si>
-  <si>
-    <t>SURNEX S.A.C.</t>
-  </si>
-  <si>
-    <t>TEN SOLUCIONES &amp; SERVICIOS E.I.R.L.</t>
-  </si>
-  <si>
-    <t>TIME MARK S.A.C.</t>
+    <t>SOFIA LIBRERIA Y BAZAR SOCIEDAD COMERCIAL DE RESPONSABILIDAD LIMITADA</t>
+  </si>
+  <si>
+    <t>SPECIAL BOOK SERVICES S.A.</t>
+  </si>
+  <si>
+    <t>SYT COMPANY S.A.C.</t>
+  </si>
+  <si>
+    <t>TATI Y DEYANIRA LIBRERIA BAZAR S.R.L.</t>
+  </si>
+  <si>
+    <t>TONINA E.I.R.L.</t>
+  </si>
+  <si>
+    <t>UNIVERSO EMPRESARIAL S.A.C.</t>
+  </si>
+  <si>
+    <t>UTILES &amp; MAS LIBRERÍA BAZAR E.I.R.L.</t>
+  </si>
+  <si>
+    <t>VH FERRETERIA &amp; LIBRERIA SOCIEDAD COMERCIAL DE RESPONSABILIDAD LIMITADA - VH FERRETERIA &amp; LIBRERIA S</t>
+  </si>
+  <si>
+    <t>VQ IMPORTACIONES PERU S.A.C.</t>
+  </si>
+  <si>
+    <t>WALAH LIBRERIAS E.I.R.L.</t>
+  </si>
+  <si>
+    <t>WINNAAR MV S.R.L.</t>
+  </si>
+  <si>
+    <t>YOKOTA INVERSIONES S.A.C.</t>
+  </si>
+  <si>
+    <t>YOVIS C &amp; M LIBRERIA Y ACCESORIOS E.I.R.L.</t>
   </si>
 </sst>
 </file>
@@ -658,7 +454,7 @@
   <dimension ref="B1:B151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B2" sqref="B2:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,7 +467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -706,7 +502,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:2" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
@@ -717,12 +513,12 @@
       </c>
     </row>
     <row r="11" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -731,350 +527,214 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="2" t="s">
+    <row r="14" spans="2:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B15" s="1"/>
     </row>
     <row r="16" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="B16" s="1"/>
     </row>
     <row r="17" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="B17" s="1"/>
     </row>
     <row r="18" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="B18" s="1"/>
     </row>
     <row r="19" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="B19" s="1"/>
     </row>
     <row r="20" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="B20" s="1"/>
     </row>
     <row r="21" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="B21" s="2"/>
     </row>
     <row r="22" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="B22" s="1"/>
     </row>
     <row r="23" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="B23" s="1"/>
     </row>
     <row r="24" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="B24" s="1"/>
     </row>
     <row r="25" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="B25" s="1"/>
     </row>
     <row r="26" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="B26" s="1"/>
     </row>
     <row r="27" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="B27" s="1"/>
     </row>
     <row r="28" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="B28" s="1"/>
     </row>
     <row r="29" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="B29" s="2"/>
     </row>
     <row r="30" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="1"/>
     </row>
     <row r="32" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="B32" s="1"/>
     </row>
     <row r="33" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="B33" s="1"/>
     </row>
     <row r="34" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="B34" s="1"/>
     </row>
     <row r="35" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="B35" s="1"/>
     </row>
     <row r="36" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="B36" s="1"/>
     </row>
     <row r="37" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="B37" s="1"/>
     </row>
     <row r="38" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="B38" s="1"/>
     </row>
     <row r="39" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="B39" s="1"/>
     </row>
     <row r="40" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="B40" s="1"/>
     </row>
     <row r="41" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="B41" s="1"/>
     </row>
     <row r="42" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="B42" s="1"/>
     </row>
     <row r="43" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="B43" s="1"/>
     </row>
     <row r="44" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="B44" s="1"/>
     </row>
     <row r="45" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="B45" s="1"/>
     </row>
     <row r="46" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="B46" s="1"/>
     </row>
     <row r="47" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="B47" s="1"/>
     </row>
     <row r="48" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="B48" s="1"/>
     </row>
     <row r="49" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="B49" s="1"/>
     </row>
     <row r="50" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="B50" s="1"/>
     </row>
     <row r="51" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="B51" s="1"/>
     </row>
     <row r="52" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="B52" s="1"/>
     </row>
     <row r="53" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="B53" s="1"/>
     </row>
     <row r="54" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="B54" s="2"/>
     </row>
     <row r="55" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="B55" s="1"/>
     </row>
     <row r="56" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="B56" s="1"/>
     </row>
     <row r="57" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="B57" s="2"/>
     </row>
     <row r="58" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="B58" s="1"/>
     </row>
     <row r="59" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="B59" s="2"/>
     </row>
     <row r="60" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="B60" s="1"/>
+    </row>
+    <row r="61" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="1"/>
     </row>
     <row r="62" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="B62" s="2"/>
     </row>
     <row r="63" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="2" t="s">
-        <v>62</v>
-      </c>
+      <c r="B63" s="2"/>
     </row>
     <row r="64" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="B64" s="1"/>
     </row>
     <row r="65" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="B65" s="1"/>
     </row>
     <row r="66" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="B66" s="1"/>
     </row>
     <row r="67" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="B67" s="1"/>
     </row>
     <row r="68" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="B68" s="1"/>
     </row>
     <row r="69" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="B69" s="1"/>
     </row>
     <row r="70" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="B70" s="2"/>
     </row>
     <row r="71" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="B71" s="2"/>
     </row>
     <row r="72" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="B72" s="1"/>
     </row>
     <row r="73" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="B73" s="2"/>
     </row>
     <row r="74" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="B74" s="2"/>
     </row>
     <row r="75" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="B75" s="1"/>
     </row>
     <row r="76" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="B76" s="1"/>
     </row>
     <row r="77" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="B77" s="1"/>
     </row>
     <row r="78" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="B78" s="1"/>
     </row>
     <row r="79" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="B79" s="1"/>
     </row>
     <row r="80" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="B80" s="1"/>
     </row>
     <row r="81" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="B81" s="1"/>
     </row>
     <row r="82" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="B82" s="1"/>
     </row>
     <row r="83" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>

--- a/empresas.xlsx
+++ b/empresas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Programas sin finalizar\ScrapingSUNAT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CF5B2B-3713-441A-AEEA-788B947C4CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8DDD0A4-542E-493B-8783-5D2E4BC70CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4B4C5AA1-E11C-494E-965B-EC1DE9B609BF}"/>
   </bookViews>
@@ -37,48 +37,609 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
   <si>
     <t>razon_social</t>
   </si>
   <si>
-    <t>SOFIA LIBRERIA Y BAZAR SOCIEDAD COMERCIAL DE RESPONSABILIDAD LIMITADA</t>
-  </si>
-  <si>
-    <t>SPECIAL BOOK SERVICES S.A.</t>
-  </si>
-  <si>
-    <t>SYT COMPANY S.A.C.</t>
-  </si>
-  <si>
-    <t>TATI Y DEYANIRA LIBRERIA BAZAR S.R.L.</t>
-  </si>
-  <si>
-    <t>TONINA E.I.R.L.</t>
-  </si>
-  <si>
-    <t>UNIVERSO EMPRESARIAL S.A.C.</t>
-  </si>
-  <si>
-    <t>UTILES &amp; MAS LIBRERÍA BAZAR E.I.R.L.</t>
-  </si>
-  <si>
-    <t>VH FERRETERIA &amp; LIBRERIA SOCIEDAD COMERCIAL DE RESPONSABILIDAD LIMITADA - VH FERRETERIA &amp; LIBRERIA S</t>
-  </si>
-  <si>
-    <t>VQ IMPORTACIONES PERU S.A.C.</t>
-  </si>
-  <si>
-    <t>WALAH LIBRERIAS E.I.R.L.</t>
-  </si>
-  <si>
-    <t>WINNAAR MV S.R.L.</t>
-  </si>
-  <si>
-    <t>YOKOTA INVERSIONES S.A.C.</t>
-  </si>
-  <si>
-    <t>YOVIS C &amp; M LIBRERIA Y ACCESORIOS E.I.R.L.</t>
+    <t>NOVATE S.A.P S.A.C.</t>
+  </si>
+  <si>
+    <t>OM E HIJOS REPRESENTACIONES S.A.C.</t>
+  </si>
+  <si>
+    <t>ORIGINAL KOREA IMPORT E.I.R.L.</t>
+  </si>
+  <si>
+    <t>OSAN MOTORS S.A.C.</t>
+  </si>
+  <si>
+    <t>PARABRISAS DELIVERY LIMA S.A.C.</t>
+  </si>
+  <si>
+    <t>PERU MASTER AUTOMOCION Y SERVICIOS S.A.C.</t>
+  </si>
+  <si>
+    <t>PERU TODO 4 X 4 S.A.C.</t>
+  </si>
+  <si>
+    <t>PETRI CORP S.A.C.</t>
+  </si>
+  <si>
+    <t>PRAIG SOLUTIONS S.A.C.</t>
+  </si>
+  <si>
+    <t>PREVEN SERVICIOS E.I.R.L.</t>
+  </si>
+  <si>
+    <t>PROTEMAX S.A.C.</t>
+  </si>
+  <si>
+    <t>PROTIRES &amp; CAR BOUTIQUE E.I.R.L.</t>
+  </si>
+  <si>
+    <t>PROVEEDORA LOGISTICA S.A.C.</t>
+  </si>
+  <si>
+    <t>QINGDAO TYRES PERU S.A.C.</t>
+  </si>
+  <si>
+    <t>R.A Y N.J FERCAT CORPORACION E.I.R.L.</t>
+  </si>
+  <si>
+    <t>RADIADORES BARRETO SRL</t>
+  </si>
+  <si>
+    <t>RADIADORES FREELINE S.R.L.</t>
+  </si>
+  <si>
+    <t>RED DINAMO S.A.C.</t>
+  </si>
+  <si>
+    <t>RENTA CAR WALLACE E.I.R.L.</t>
+  </si>
+  <si>
+    <t>REPRESENTACIONES MJV E.I.R.L</t>
+  </si>
+  <si>
+    <t>REPUESTOS JAPONESES S.A.</t>
+  </si>
+  <si>
+    <t>RG - HYDRO E.I.R.L</t>
+  </si>
+  <si>
+    <t>RJ HOLDING PERU SOCIEDAD ANONIMA CERRADA</t>
+  </si>
+  <si>
+    <t>RODASIA AUTO PARTS S.A.C</t>
+  </si>
+  <si>
+    <t>ROMA IMPORT PERU S.A.C.</t>
+  </si>
+  <si>
+    <t>S &amp; C CONTINENTAL PACIFICO E.I.R.L.</t>
+  </si>
+  <si>
+    <t>S &amp; M IMPORTADORES S.A.C.</t>
+  </si>
+  <si>
+    <t>S.J.DISTRIBUCIONES S.A.C.</t>
+  </si>
+  <si>
+    <t>SAILING POINT S.A.C.</t>
+  </si>
+  <si>
+    <t>SAKANA IMPORT EMPRESA INDIVIDUAL DE RESPONSABILIDAD LIMITAD</t>
+  </si>
+  <si>
+    <t>SALES WAR S.A.C.</t>
+  </si>
+  <si>
+    <t>SAMI KAY PERU E.I.R.L.</t>
+  </si>
+  <si>
+    <t>SANJEQ CORPORATION S.A.C.</t>
+  </si>
+  <si>
+    <t>SERV TECN DEL AIRE PA LA IND LA MIN SA</t>
+  </si>
+  <si>
+    <t>SERVICEMAQ AMSE E.I.R.L.</t>
+  </si>
+  <si>
+    <t>SERVICENTRO VIRGEN DE CHAPI SOCIEDAD ANONIMA CERRADA</t>
+  </si>
+  <si>
+    <t>SERVICIOS GENERALES KORIAKI E.I.R.L.</t>
+  </si>
+  <si>
+    <t>SERVICIOS LOGISTICOS DIESEL S.A.C. - SLD S.A.C.</t>
+  </si>
+  <si>
+    <t>SLOT CASINO SELVA S.A.C.</t>
+  </si>
+  <si>
+    <t>SMF PERUANA SOCIEDAD ANONIMA CERRADA</t>
+  </si>
+  <si>
+    <t>SOBRE 4 RUEDAS E.I.R.L.</t>
+  </si>
+  <si>
+    <t>SOLUCIONES MEDICAS TECNOLOGICAS E.I.R.L.</t>
+  </si>
+  <si>
+    <t>SOPORTES DE VEHICULOS Y EXTINTORES FELIX E.I.R.L.</t>
+  </si>
+  <si>
+    <t>SOUTH HORIZON SOCIEDAD ANONIMA CERRADA</t>
+  </si>
+  <si>
+    <t>SOUTH TIRES PERU SOCIEDAD ANONIMA CERRADA - SOUTH TIRES S.A.C.</t>
+  </si>
+  <si>
+    <t>SPEED-PERU SOCIEDAD ANONIMA CERRADA</t>
+  </si>
+  <si>
+    <t>SPIN PERU S.A.C.</t>
+  </si>
+  <si>
+    <t>SUPPLIES &amp; MAINTENANCE SERVICES SAC</t>
+  </si>
+  <si>
+    <t>TALLER AUTOGAS PERU S.A.C.</t>
+  </si>
+  <si>
+    <t>TORO TRADE COMPANY E.I.R.L.</t>
+  </si>
+  <si>
+    <t>TORQUE S.A.C.</t>
+  </si>
+  <si>
+    <t>TOTAL 4X4 BUSINESS S.A.C.</t>
+  </si>
+  <si>
+    <t>TOTAL MOTORING S.A.C.</t>
+  </si>
+  <si>
+    <t>TRACTOPARTES-VR E.I.R.L.</t>
+  </si>
+  <si>
+    <t>TRADE SERVICE A &amp; E S.A.C.</t>
+  </si>
+  <si>
+    <t>VALLE ALTO MAQUINARIAS E.I.R.L.</t>
+  </si>
+  <si>
+    <t>VELOTAXI UNO S.A.C.</t>
+  </si>
+  <si>
+    <t>VENTAS MINERIA BARRICK PERU E.I.R.L.</t>
+  </si>
+  <si>
+    <t>WAREHOUSE PARTS E.I.R.L. - W.PARTS E.I.R.L.</t>
+  </si>
+  <si>
+    <t>WICE SERVICIOS CORPORATIVOS S.A.C.</t>
+  </si>
+  <si>
+    <t>ZULFROOTS S.R.L</t>
+  </si>
+  <si>
+    <t>25 AM E.I.R.L.</t>
+  </si>
+  <si>
+    <t>2JZ AUTOMOTIVE SAC</t>
+  </si>
+  <si>
+    <t>A &amp; V REPUESTOS SAN ANDRES S.A.C.</t>
+  </si>
+  <si>
+    <t>ABBA OIL COMPANY S.A.C.</t>
+  </si>
+  <si>
+    <t>AC.STAG S.A.C.</t>
+  </si>
+  <si>
+    <t>ACCESORIOS MEZA E.I.R.L.</t>
+  </si>
+  <si>
+    <t>ALFREDO PIMENTEL SEVILLA S A</t>
+  </si>
+  <si>
+    <t>ALL ASIAN MOTORS E.I.R.L.</t>
+  </si>
+  <si>
+    <t>ALROMA TOOLS PERU S.A.C.</t>
+  </si>
+  <si>
+    <t>AMERICAN CAR SYSTEM S.A.C.</t>
+  </si>
+  <si>
+    <t>AQP MOTOR PART E.I.R.L</t>
+  </si>
+  <si>
+    <t>ASCHIERO VENTAS E.I.R.L.</t>
+  </si>
+  <si>
+    <t>ASESORIA Y REPARACION DE AUTOS Y MOTORES SOCIEDAD ANONIMA CERRADA</t>
+  </si>
+  <si>
+    <t>ASPEN CAPITAL S.A.C. - ASPENCA S.A.C.</t>
+  </si>
+  <si>
+    <t>AUTO BOUTIQUE FL S.A.C.</t>
+  </si>
+  <si>
+    <t>AUTO BOUTIQUE ML. E.I.R.L.</t>
+  </si>
+  <si>
+    <t>AUTO PARTS ELECTRICAL F &amp; N S.A.C.</t>
+  </si>
+  <si>
+    <t>AUTO PARTS ELECTRICAL FERNANDO E.I.R.L.</t>
+  </si>
+  <si>
+    <t>AUTO SPORT ARAMBURU E.I.R.L.</t>
+  </si>
+  <si>
+    <t>AUTO TUNING CHINA-USA IMPORT S.A.C.</t>
+  </si>
+  <si>
+    <t>AUTODISA REPUESTOS E.I.R.L.</t>
+  </si>
+  <si>
+    <t>AUTOMOTRIZ MARIMON S.A.C.</t>
+  </si>
+  <si>
+    <t>AUTOPARTES Y ACCESORIOS ZUPER PRIME MOTOR'S S.R.L.</t>
+  </si>
+  <si>
+    <t>AUTOREPUESTOS Y SERVICIOS C J E.I.R.L.</t>
+  </si>
+  <si>
+    <t>AUTORUS PERU E.I.R.L.</t>
+  </si>
+  <si>
+    <t>AUTOS MOTORPARTS E.I.R.L.</t>
+  </si>
+  <si>
+    <t>AUTOS MOTORVOL S.A.C.</t>
+  </si>
+  <si>
+    <t>AUTOTECHNIK S.A.C.</t>
+  </si>
+  <si>
+    <t>AUTOZENTRUM SERVICIOS AUTOMOTRICES S.A.C.</t>
+  </si>
+  <si>
+    <t>BLANK' IT E.I.R.L.</t>
+  </si>
+  <si>
+    <t>BRAKE SOLUTION E.I.R.L.</t>
+  </si>
+  <si>
+    <t>BRANNETT PERU E.I.R.L.</t>
+  </si>
+  <si>
+    <t>CADEC MAQUINARIAS SOCIEDAD ANONIMA CERRADA</t>
+  </si>
+  <si>
+    <t>CARBURADORES KOKOLISO IMPORT E.I.R.L.</t>
+  </si>
+  <si>
+    <t>CARPLAY S.A.C.</t>
+  </si>
+  <si>
+    <t>CAUTIVO MUFFLER SHOP E.I.R.L.</t>
+  </si>
+  <si>
+    <t>CDF AUTOMOTRIZ S.A.C.</t>
+  </si>
+  <si>
+    <t>CHINCHA 4X4 STORE S.A.C.</t>
+  </si>
+  <si>
+    <t>CLEVER CAPITAL SOCIEDAD ANONIMA CERRADA</t>
+  </si>
+  <si>
+    <t>COLD TECHNOLOGY PERU S.A.C.</t>
+  </si>
+  <si>
+    <t>COMERCIALIZADORA DE REPUESTOS &amp; SUMINISTROS LA MEJOR S.R.L.</t>
+  </si>
+  <si>
+    <t>COMERCIO AUTOMOTRIZ S.A.C.</t>
+  </si>
+  <si>
+    <t>CORDOVA SERVICE PERU E.I.R.L.</t>
+  </si>
+  <si>
+    <t>CORPORACION DECOVA S.A.C.</t>
+  </si>
+  <si>
+    <t>CORPORACION INZ.COM S.A.C.</t>
+  </si>
+  <si>
+    <t>CORPORACION JOFRAN F&amp;S S.A.C.</t>
+  </si>
+  <si>
+    <t>CORPORACION JOFRAN-CLAUSTE E.I.R.L.</t>
+  </si>
+  <si>
+    <t>CORPORACION MAGIC VAS E.I.R.L.</t>
+  </si>
+  <si>
+    <t>CORPORACION WBU DE REPUESTOS Y SERVICIOS E.I.R.L.</t>
+  </si>
+  <si>
+    <t>CORPORACION Z1 SOCIEDAD ANONIMA CERRADA - CORPORACION Z1 S.A.C.</t>
+  </si>
+  <si>
+    <t>CORPORACION Z1 SUR SOCIEDAD ANONIMA CERRADA</t>
+  </si>
+  <si>
+    <t>CRISTAL FILMS S.A.C.</t>
+  </si>
+  <si>
+    <t>CRISTALES EXPRESS LIMA S.A.C.</t>
+  </si>
+  <si>
+    <t>DAKAL SERVICE BRAKES E.I.R.L.</t>
+  </si>
+  <si>
+    <t>DELTA PERU SOCIEDAD ANONIMA CERRADA</t>
+  </si>
+  <si>
+    <t>DEMA S A</t>
+  </si>
+  <si>
+    <t>DIPCAR.PE S.A.C.</t>
+  </si>
+  <si>
+    <t>DISTRIBUCION E IMPORTACIONES DE REPUESTOS EUROPEOS Y AMERICANOS S.A.C.</t>
+  </si>
+  <si>
+    <t>DISTRIBUCIONES TECNICAS S.A.C.</t>
+  </si>
+  <si>
+    <t>DISTRIBUIDORA DE REPUESTOS ANDINOS E.I.R.L.</t>
+  </si>
+  <si>
+    <t>DISTRIBUIDORA DE REPUESTOS AUTOMOTRICES INDUSTRIALES S.A.C. - DRAI S.A.C.</t>
+  </si>
+  <si>
+    <t>DISTRIBUIDORA VEGA S A</t>
+  </si>
+  <si>
+    <t>EDWIN CAR TUNING SERVICE S.A.C.</t>
+  </si>
+  <si>
+    <t>EL REFUGIO DEL RIDER E.I.R.L.</t>
+  </si>
+  <si>
+    <t>ELECTRICAL PARTS FLORES S.A.C.</t>
+  </si>
+  <si>
+    <t>ELEGANT CARS PERU E.I.R.L- ELEGAN CARS</t>
+  </si>
+  <si>
+    <t>EUROMARCAS S.A.C.</t>
+  </si>
+  <si>
+    <t>EVOLUTION NEW CARS SAC</t>
+  </si>
+  <si>
+    <t>F &amp; D IMPORT SOCIEDAD ANONIMA CERRADA</t>
+  </si>
+  <si>
+    <t>F &amp; E RONDINEL E.I.R.L.</t>
+  </si>
+  <si>
+    <t>FALCONELLO S.A.C.</t>
+  </si>
+  <si>
+    <t>FILTROCENTRO PERU E.I.R.L.</t>
+  </si>
+  <si>
+    <t>G &amp; C INVERSIONES Y NEGOCIOS S.A.C.</t>
+  </si>
+  <si>
+    <t>GARAGE 1640 S.A.C.</t>
+  </si>
+  <si>
+    <t>GB2 SOLUTIONS S.A.C.</t>
+  </si>
+  <si>
+    <t>GNC PARTES S.A.C.</t>
+  </si>
+  <si>
+    <t>GOLD TRACK &amp; CIA S.R.L.</t>
+  </si>
+  <si>
+    <t>GR PERFOMANCE &amp; SERVICE SOCIEDAD COMERCIAL DE RESPONSABILIDAD LIMITADA</t>
+  </si>
+  <si>
+    <t>GRUPO AUTOMOTRIZ DE VEHÍCULOS DE ALTA GAMA S.A.C.</t>
+  </si>
+  <si>
+    <t>HEAD AUTOBOUTIQUE E.I.R.L.</t>
+  </si>
+  <si>
+    <t>HERRAMIENTAS Y MANGUERAS FERNANDO ALONSO E.I.R.L</t>
+  </si>
+  <si>
+    <t>IMPORTACION Y DISTRIBUCION DE REPUESTOS AUTOMOTRIZ ANDINOS E.I.R.L.</t>
+  </si>
+  <si>
+    <t>IMPORTACION Y DISTRIBUCION DE REPUESTOS F &amp; D E.I.R.L.</t>
+  </si>
+  <si>
+    <t>IMPORTACIONES CMC EIRL</t>
+  </si>
+  <si>
+    <t>IMPORTACIONES LAZART S.A.C.</t>
+  </si>
+  <si>
+    <t>IMPORTACIONES ORMAVI SOCIEDAD ANONIMA CERRADA - ORMAVI S.A.C.</t>
+  </si>
+  <si>
+    <t>IMPORTACIONES SAN MIGUEL S.A.C.</t>
+  </si>
+  <si>
+    <t>IMPORTACIONES Y SERVICIOS PYD S.A.C.</t>
+  </si>
+  <si>
+    <t>IMPORTADORA DE AUTOPARTES ANDINOS S.A.C.</t>
+  </si>
+  <si>
+    <t>IMPORTADORA DE REPUESTOS AL TOKE S.A.C.</t>
+  </si>
+  <si>
+    <t>IMPORTADORA DE REPUESTOS PERU S.A.C.</t>
+  </si>
+  <si>
+    <t>IMPORTADORA SATERI EIRL</t>
+  </si>
+  <si>
+    <t>INDUBAT E.I.R.L.</t>
+  </si>
+  <si>
+    <t>INDUSTRIAS MORA S.A.C.</t>
+  </si>
+  <si>
+    <t>INNOVACIONES LYD E.I.R.L.</t>
+  </si>
+  <si>
+    <t>INVERSION LI IMPORT &amp; EXPORT S.A.C</t>
+  </si>
+  <si>
+    <t>INVERSIONES BRANIC S.A.C.</t>
+  </si>
+  <si>
+    <t>INVERSIONES GOLDEN CARS S.A.C.</t>
+  </si>
+  <si>
+    <t>INVERSIONES IMPORTADORA &amp; EXPORTADORA FALUCO E.I.R.L.</t>
+  </si>
+  <si>
+    <t>INVERSIONES LEON X&amp;S S.A.C</t>
+  </si>
+  <si>
+    <t>INVERSIONES MUÑOZ SEGURA &amp; HNOS E.I.R.L.</t>
+  </si>
+  <si>
+    <t>J &amp; J POWER PERU IMPORT EXPORT E.I.R.L.</t>
+  </si>
+  <si>
+    <t>J.CH.COMERCIAL S.A.</t>
+  </si>
+  <si>
+    <t>JB MANGUERAS &amp; REPUESTOS E.I.R.L.</t>
+  </si>
+  <si>
+    <t>JEBES ECERF EMPRESA INDIVIDUAL DE RESPONSABILIDAD LIMITADA - JEBES ECERF E.I.R.L.</t>
+  </si>
+  <si>
+    <t>JOSSIMPORT PERU E.I.R.L.</t>
+  </si>
+  <si>
+    <t>KING FILTERS PERU S.A.C.</t>
+  </si>
+  <si>
+    <t>KING PARTS HONDA S.A.C.</t>
+  </si>
+  <si>
+    <t>LA CALERA SERVICIOS GENERALES S.A.C.</t>
+  </si>
+  <si>
+    <t>LAM HP SERVICIOS GENERALES E.I.R.L.</t>
+  </si>
+  <si>
+    <t>LIMATAMBO CAR SERVICE S.A.</t>
+  </si>
+  <si>
+    <t>LLANTAMIGO S.A.C.</t>
+  </si>
+  <si>
+    <t>LUBRICANTES D`CARLOS E.I.R.L.</t>
+  </si>
+  <si>
+    <t>LUBRICANTES INKA MOTORS INDIVIDUAL DE RESPONSABILIDAD LIMITADA - LIBRICANTES INKA MOTORS E.I.R.L.</t>
+  </si>
+  <si>
+    <t>LUBRIMAX S.A</t>
+  </si>
+  <si>
+    <t>M &amp; M APPLIANCE PARTS S.R.L.</t>
+  </si>
+  <si>
+    <t>M&amp;G AUTOMOTIVE SOCIEDAD ANÓNIMA CERRADA</t>
+  </si>
+  <si>
+    <t>M.M.M. CUEVA IMPORT &amp; EXPORT E.I.R.L.</t>
+  </si>
+  <si>
+    <t>M/R AUTODESIGN E.I.R.L.</t>
+  </si>
+  <si>
+    <t>MAPISA CORPORATION S.A.C.</t>
+  </si>
+  <si>
+    <t>MC TECNOLOGY S.A.C.</t>
+  </si>
+  <si>
+    <t>MECANICA AUTOMOTRIZ J CHINO E.I.R.L.</t>
+  </si>
+  <si>
+    <t>MIAMI PARTS PERU S.A.C.</t>
+  </si>
+  <si>
+    <t>MORA AUTOMOTRIZ &amp; ASOCIADOS S.A.C.</t>
+  </si>
+  <si>
+    <t>MOTORARED S.A.C.</t>
+  </si>
+  <si>
+    <t>MULTIMARCAS ANEXAS EN GRADO E.I.R.L.</t>
+  </si>
+  <si>
+    <t>MULTISERVICIOS E INGENIERIA M &amp; N S.A.C.</t>
+  </si>
+  <si>
+    <t>MY SUPER AUTO S.A.C.</t>
+  </si>
+  <si>
+    <t>NEWGAS IMPORT S.A.C.</t>
+  </si>
+  <si>
+    <t>ORO DIESEL PERU S.A.C.</t>
+  </si>
+  <si>
+    <t>PANGU (PERU) NEW ENERGY VEHICLE SALES S.A.C.</t>
+  </si>
+  <si>
+    <t>PARTS SHOP IMPORT E.I.R.L.</t>
+  </si>
+  <si>
+    <t>PERNOS &amp; TUERCAS ANGAMOS E.I.R.L.</t>
+  </si>
+  <si>
+    <t>PORTSSHING COMPANY S.A.C.</t>
+  </si>
+  <si>
+    <t>PROMAX TRADE IMPORT SOCIEDAD ANONIMA CERRADA</t>
+  </si>
+  <si>
+    <t>QUISWAR S.A.C.</t>
+  </si>
+  <si>
+    <t>R A REPUESTOS ORIGINALES S.A.C.</t>
+  </si>
+  <si>
+    <t>RACING BRAND S.A.C.</t>
+  </si>
+  <si>
+    <t>RADIADORES D &amp; M IMPORT E.I.R.L.</t>
   </si>
 </sst>
 </file>
@@ -451,10 +1012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F5111E-E63C-42FC-90AA-352ED2BE978B}">
-  <dimension ref="B1:B151"/>
+  <dimension ref="B1:B201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B14"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,12 +1028,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -482,7 +1043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -493,7 +1054,7 @@
       </c>
     </row>
     <row r="7" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -502,7 +1063,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
@@ -527,421 +1088,945 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="17" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="18" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="19" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="20" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="21" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="2"/>
+      <c r="B21" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="22" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="23" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="24" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="1"/>
+      <c r="B24" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="25" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="26" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="27" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="28" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="29" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="2"/>
+      <c r="B29" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="30" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="31" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="1"/>
+      <c r="B31" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="32" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="33" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="1"/>
+      <c r="B33" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="34" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="1"/>
+      <c r="B34" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="35" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="1"/>
+      <c r="B35" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="36" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="1"/>
+      <c r="B36" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="37" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="1"/>
-    </row>
-    <row r="38" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="1"/>
+      <c r="B37" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="39" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="1"/>
+      <c r="B39" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="40" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="41" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="1"/>
+      <c r="B41" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="42" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="1"/>
+      <c r="B42" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="43" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="1"/>
+      <c r="B43" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="44" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="1"/>
+      <c r="B44" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="45" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="1"/>
+      <c r="B45" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="46" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="1"/>
+      <c r="B46" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="47" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="1"/>
+      <c r="B47" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="48" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="1"/>
+      <c r="B48" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="49" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="1"/>
+      <c r="B49" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="50" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="1"/>
+      <c r="B50" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="51" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="1"/>
+      <c r="B51" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="52" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="1"/>
+      <c r="B52" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="53" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="1"/>
+      <c r="B53" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="54" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="2"/>
+      <c r="B54" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="55" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="1"/>
+      <c r="B55" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="56" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="1"/>
+      <c r="B56" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="57" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="2"/>
+      <c r="B57" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="58" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="1"/>
-    </row>
-    <row r="59" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="2"/>
+      <c r="B58" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="60" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="1"/>
-    </row>
-    <row r="61" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="1"/>
+      <c r="B60" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="62" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="2"/>
+      <c r="B62" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="63" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="2"/>
+      <c r="B63" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="64" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="1"/>
+      <c r="B64" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="65" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="1"/>
+      <c r="B65" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="66" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="1"/>
+      <c r="B66" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="67" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="1"/>
+      <c r="B67" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="68" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="1"/>
+      <c r="B68" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="69" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="1"/>
+      <c r="B69" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="70" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="2"/>
+      <c r="B70" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="71" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="2"/>
+      <c r="B71" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="72" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="1"/>
+      <c r="B72" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="73" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="2"/>
+      <c r="B73" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="74" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="2"/>
+      <c r="B74" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="75" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="1"/>
-    </row>
-    <row r="76" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="1"/>
+      <c r="B75" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="77" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="1"/>
+      <c r="B77" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="78" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="1"/>
+      <c r="B78" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="79" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="1"/>
+      <c r="B79" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="80" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="1"/>
+      <c r="B80" s="2" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="81" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="1"/>
+      <c r="B81" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="82" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="1"/>
+      <c r="B82" s="2" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="83" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="1"/>
+      <c r="B83" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="84" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="1"/>
+      <c r="B84" s="1" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="85" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="1"/>
-    </row>
-    <row r="86" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="1"/>
+      <c r="B85" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="87" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="2"/>
+      <c r="B87" s="1" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="88" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="1"/>
+      <c r="B88" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="89" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="1"/>
+      <c r="B89" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="90" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="1"/>
+      <c r="B90" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="91" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="1"/>
+      <c r="B91" s="2" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="92" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="2"/>
+      <c r="B92" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="93" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="1"/>
+      <c r="B93" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="94" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="2"/>
+      <c r="B94" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="95" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="1"/>
+      <c r="B95" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="96" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="2"/>
+      <c r="B96" s="2" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="97" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="1"/>
+      <c r="B97" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="98" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="1"/>
+      <c r="B98" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="99" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="1"/>
+      <c r="B99" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="100" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="1"/>
+      <c r="B100" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="101" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="1"/>
+      <c r="B101" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="102" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="1"/>
+      <c r="B102" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="103" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="1"/>
+      <c r="B103" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="104" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="1"/>
+      <c r="B104" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="105" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="1"/>
+      <c r="B105" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="106" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="2"/>
+      <c r="B106" s="1" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="107" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="1"/>
+      <c r="B107" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="108" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="1"/>
-    </row>
-    <row r="109" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="2"/>
+      <c r="B108" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="110" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="1"/>
+      <c r="B110" s="1" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="111" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="2"/>
+      <c r="B111" s="2" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="112" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="1"/>
+      <c r="B112" s="2" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="113" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="2"/>
+      <c r="B113" s="2" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="114" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="1"/>
+      <c r="B114" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="115" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="1"/>
+      <c r="B115" s="1" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="116" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="1"/>
+      <c r="B116" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="117" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="1"/>
+      <c r="B117" s="2" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="118" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="1"/>
+      <c r="B118" s="1" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="119" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="1"/>
+      <c r="B119" s="1" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="120" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="2"/>
+      <c r="B120" s="2" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="121" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="2"/>
+      <c r="B121" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="122" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="1"/>
+      <c r="B122" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="123" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="1"/>
+      <c r="B123" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="124" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="1"/>
+      <c r="B124" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="125" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="1"/>
+      <c r="B125" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="126" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="1"/>
+      <c r="B126" s="1" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="127" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="2"/>
+      <c r="B127" s="1" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="128" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="2"/>
+      <c r="B128" s="2" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="129" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="2"/>
+      <c r="B129" s="1" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="130" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="1"/>
+      <c r="B130" s="1" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="131" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="1"/>
+      <c r="B131" s="2" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="132" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B132" s="1"/>
+      <c r="B132" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="133" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="1"/>
+      <c r="B133" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="134" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="1"/>
-    </row>
-    <row r="135" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B135" s="1"/>
+      <c r="B134" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B135" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="136" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B136" s="1"/>
+      <c r="B136" s="1" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="137" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B137" s="1"/>
+      <c r="B137" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="138" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B138" s="2"/>
+      <c r="B138" s="1" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="139" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="1"/>
+      <c r="B139" s="1" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="140" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B140" s="1"/>
+      <c r="B140" s="2" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="141" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="1"/>
+      <c r="B141" s="2" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="142" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="1"/>
+      <c r="B142" s="1" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="143" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="1"/>
+      <c r="B143" s="2" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="144" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="1"/>
+      <c r="B144" s="2" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="145" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B145" s="1"/>
+      <c r="B145" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="146" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="1"/>
+      <c r="B146" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="147" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B147" s="1"/>
+      <c r="B147" s="1" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="148" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B148" s="1"/>
+      <c r="B148" s="2" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="149" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B149" s="1"/>
-    </row>
-    <row r="150" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="1"/>
+      <c r="B149" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B150" s="1" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="151" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B151" s="1"/>
+      <c r="B151" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B152" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B153" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B154" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B155" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B156" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B157" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B158" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B159" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B160" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B161" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B162" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B163" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B164" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B165" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B166" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B167" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B168" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B169" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B170" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B171" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B172" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B173" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B174" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B175" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B176" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B177" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B178" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B179" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B180" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B181" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B182" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B183" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B184" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B185" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B186" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B187" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B188" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B189" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B190" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B191" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B192" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B193" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B194" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B195" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B196" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B197" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B198" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B199" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B200" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B201" s="1" t="s">
+        <v>200</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/empresas.xlsx
+++ b/empresas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Programas sin finalizar\ScrapingSUNAT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8DDD0A4-542E-493B-8783-5D2E4BC70CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5677CC-E40C-44CC-82E1-683EB0649CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4B4C5AA1-E11C-494E-965B-EC1DE9B609BF}"/>
+    <workbookView xWindow="5610" yWindow="1890" windowWidth="18000" windowHeight="9360" xr2:uid="{4B4C5AA1-E11C-494E-965B-EC1DE9B609BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,609 +37,1398 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="464">
   <si>
     <t>razon_social</t>
   </si>
   <si>
-    <t>NOVATE S.A.P S.A.C.</t>
-  </si>
-  <si>
-    <t>OM E HIJOS REPRESENTACIONES S.A.C.</t>
-  </si>
-  <si>
-    <t>ORIGINAL KOREA IMPORT E.I.R.L.</t>
-  </si>
-  <si>
-    <t>OSAN MOTORS S.A.C.</t>
-  </si>
-  <si>
-    <t>PARABRISAS DELIVERY LIMA S.A.C.</t>
-  </si>
-  <si>
-    <t>PERU MASTER AUTOMOCION Y SERVICIOS S.A.C.</t>
-  </si>
-  <si>
-    <t>PERU TODO 4 X 4 S.A.C.</t>
-  </si>
-  <si>
-    <t>PETRI CORP S.A.C.</t>
-  </si>
-  <si>
-    <t>PRAIG SOLUTIONS S.A.C.</t>
-  </si>
-  <si>
-    <t>PREVEN SERVICIOS E.I.R.L.</t>
-  </si>
-  <si>
-    <t>PROTEMAX S.A.C.</t>
-  </si>
-  <si>
-    <t>PROTIRES &amp; CAR BOUTIQUE E.I.R.L.</t>
-  </si>
-  <si>
-    <t>PROVEEDORA LOGISTICA S.A.C.</t>
-  </si>
-  <si>
-    <t>QINGDAO TYRES PERU S.A.C.</t>
-  </si>
-  <si>
-    <t>R.A Y N.J FERCAT CORPORACION E.I.R.L.</t>
-  </si>
-  <si>
-    <t>RADIADORES BARRETO SRL</t>
-  </si>
-  <si>
-    <t>RADIADORES FREELINE S.R.L.</t>
-  </si>
-  <si>
-    <t>RED DINAMO S.A.C.</t>
-  </si>
-  <si>
-    <t>RENTA CAR WALLACE E.I.R.L.</t>
-  </si>
-  <si>
-    <t>REPRESENTACIONES MJV E.I.R.L</t>
-  </si>
-  <si>
-    <t>REPUESTOS JAPONESES S.A.</t>
-  </si>
-  <si>
-    <t>RG - HYDRO E.I.R.L</t>
-  </si>
-  <si>
-    <t>RJ HOLDING PERU SOCIEDAD ANONIMA CERRADA</t>
-  </si>
-  <si>
-    <t>RODASIA AUTO PARTS S.A.C</t>
-  </si>
-  <si>
-    <t>ROMA IMPORT PERU S.A.C.</t>
-  </si>
-  <si>
-    <t>S &amp; C CONTINENTAL PACIFICO E.I.R.L.</t>
-  </si>
-  <si>
-    <t>S &amp; M IMPORTADORES S.A.C.</t>
-  </si>
-  <si>
-    <t>S.J.DISTRIBUCIONES S.A.C.</t>
-  </si>
-  <si>
-    <t>SAILING POINT S.A.C.</t>
-  </si>
-  <si>
-    <t>SAKANA IMPORT EMPRESA INDIVIDUAL DE RESPONSABILIDAD LIMITAD</t>
-  </si>
-  <si>
-    <t>SALES WAR S.A.C.</t>
-  </si>
-  <si>
-    <t>SAMI KAY PERU E.I.R.L.</t>
-  </si>
-  <si>
-    <t>SANJEQ CORPORATION S.A.C.</t>
-  </si>
-  <si>
-    <t>SERV TECN DEL AIRE PA LA IND LA MIN SA</t>
-  </si>
-  <si>
-    <t>SERVICEMAQ AMSE E.I.R.L.</t>
-  </si>
-  <si>
-    <t>SERVICENTRO VIRGEN DE CHAPI SOCIEDAD ANONIMA CERRADA</t>
-  </si>
-  <si>
-    <t>SERVICIOS GENERALES KORIAKI E.I.R.L.</t>
-  </si>
-  <si>
-    <t>SERVICIOS LOGISTICOS DIESEL S.A.C. - SLD S.A.C.</t>
-  </si>
-  <si>
-    <t>SLOT CASINO SELVA S.A.C.</t>
-  </si>
-  <si>
-    <t>SMF PERUANA SOCIEDAD ANONIMA CERRADA</t>
-  </si>
-  <si>
-    <t>SOBRE 4 RUEDAS E.I.R.L.</t>
-  </si>
-  <si>
-    <t>SOLUCIONES MEDICAS TECNOLOGICAS E.I.R.L.</t>
-  </si>
-  <si>
-    <t>SOPORTES DE VEHICULOS Y EXTINTORES FELIX E.I.R.L.</t>
-  </si>
-  <si>
-    <t>SOUTH HORIZON SOCIEDAD ANONIMA CERRADA</t>
-  </si>
-  <si>
-    <t>SOUTH TIRES PERU SOCIEDAD ANONIMA CERRADA - SOUTH TIRES S.A.C.</t>
-  </si>
-  <si>
-    <t>SPEED-PERU SOCIEDAD ANONIMA CERRADA</t>
-  </si>
-  <si>
-    <t>SPIN PERU S.A.C.</t>
-  </si>
-  <si>
-    <t>SUPPLIES &amp; MAINTENANCE SERVICES SAC</t>
-  </si>
-  <si>
-    <t>TALLER AUTOGAS PERU S.A.C.</t>
-  </si>
-  <si>
-    <t>TORO TRADE COMPANY E.I.R.L.</t>
-  </si>
-  <si>
-    <t>TORQUE S.A.C.</t>
-  </si>
-  <si>
-    <t>TOTAL 4X4 BUSINESS S.A.C.</t>
-  </si>
-  <si>
-    <t>TOTAL MOTORING S.A.C.</t>
-  </si>
-  <si>
-    <t>TRACTOPARTES-VR E.I.R.L.</t>
-  </si>
-  <si>
-    <t>TRADE SERVICE A &amp; E S.A.C.</t>
-  </si>
-  <si>
-    <t>VALLE ALTO MAQUINARIAS E.I.R.L.</t>
-  </si>
-  <si>
-    <t>VELOTAXI UNO S.A.C.</t>
-  </si>
-  <si>
-    <t>VENTAS MINERIA BARRICK PERU E.I.R.L.</t>
-  </si>
-  <si>
-    <t>WAREHOUSE PARTS E.I.R.L. - W.PARTS E.I.R.L.</t>
-  </si>
-  <si>
-    <t>WICE SERVICIOS CORPORATIVOS S.A.C.</t>
-  </si>
-  <si>
-    <t>ZULFROOTS S.R.L</t>
-  </si>
-  <si>
-    <t>25 AM E.I.R.L.</t>
-  </si>
-  <si>
-    <t>2JZ AUTOMOTIVE SAC</t>
-  </si>
-  <si>
-    <t>A &amp; V REPUESTOS SAN ANDRES S.A.C.</t>
-  </si>
-  <si>
-    <t>ABBA OIL COMPANY S.A.C.</t>
-  </si>
-  <si>
-    <t>AC.STAG S.A.C.</t>
-  </si>
-  <si>
-    <t>ACCESORIOS MEZA E.I.R.L.</t>
-  </si>
-  <si>
-    <t>ALFREDO PIMENTEL SEVILLA S A</t>
-  </si>
-  <si>
-    <t>ALL ASIAN MOTORS E.I.R.L.</t>
-  </si>
-  <si>
-    <t>ALROMA TOOLS PERU S.A.C.</t>
-  </si>
-  <si>
-    <t>AMERICAN CAR SYSTEM S.A.C.</t>
-  </si>
-  <si>
-    <t>AQP MOTOR PART E.I.R.L</t>
-  </si>
-  <si>
-    <t>ASCHIERO VENTAS E.I.R.L.</t>
-  </si>
-  <si>
-    <t>ASESORIA Y REPARACION DE AUTOS Y MOTORES SOCIEDAD ANONIMA CERRADA</t>
-  </si>
-  <si>
-    <t>ASPEN CAPITAL S.A.C. - ASPENCA S.A.C.</t>
-  </si>
-  <si>
-    <t>AUTO BOUTIQUE FL S.A.C.</t>
-  </si>
-  <si>
-    <t>AUTO BOUTIQUE ML. E.I.R.L.</t>
-  </si>
-  <si>
-    <t>AUTO PARTS ELECTRICAL F &amp; N S.A.C.</t>
-  </si>
-  <si>
-    <t>AUTO PARTS ELECTRICAL FERNANDO E.I.R.L.</t>
-  </si>
-  <si>
-    <t>AUTO SPORT ARAMBURU E.I.R.L.</t>
-  </si>
-  <si>
-    <t>AUTO TUNING CHINA-USA IMPORT S.A.C.</t>
-  </si>
-  <si>
-    <t>AUTODISA REPUESTOS E.I.R.L.</t>
-  </si>
-  <si>
-    <t>AUTOMOTRIZ MARIMON S.A.C.</t>
-  </si>
-  <si>
-    <t>AUTOPARTES Y ACCESORIOS ZUPER PRIME MOTOR'S S.R.L.</t>
-  </si>
-  <si>
-    <t>AUTOREPUESTOS Y SERVICIOS C J E.I.R.L.</t>
-  </si>
-  <si>
-    <t>AUTORUS PERU E.I.R.L.</t>
-  </si>
-  <si>
-    <t>AUTOS MOTORPARTS E.I.R.L.</t>
-  </si>
-  <si>
-    <t>AUTOS MOTORVOL S.A.C.</t>
-  </si>
-  <si>
-    <t>AUTOTECHNIK S.A.C.</t>
-  </si>
-  <si>
-    <t>AUTOZENTRUM SERVICIOS AUTOMOTRICES S.A.C.</t>
-  </si>
-  <si>
-    <t>BLANK' IT E.I.R.L.</t>
-  </si>
-  <si>
-    <t>BRAKE SOLUTION E.I.R.L.</t>
-  </si>
-  <si>
-    <t>BRANNETT PERU E.I.R.L.</t>
-  </si>
-  <si>
-    <t>CADEC MAQUINARIAS SOCIEDAD ANONIMA CERRADA</t>
-  </si>
-  <si>
-    <t>CARBURADORES KOKOLISO IMPORT E.I.R.L.</t>
-  </si>
-  <si>
-    <t>CARPLAY S.A.C.</t>
-  </si>
-  <si>
-    <t>CAUTIVO MUFFLER SHOP E.I.R.L.</t>
-  </si>
-  <si>
-    <t>CDF AUTOMOTRIZ S.A.C.</t>
-  </si>
-  <si>
-    <t>CHINCHA 4X4 STORE S.A.C.</t>
-  </si>
-  <si>
-    <t>CLEVER CAPITAL SOCIEDAD ANONIMA CERRADA</t>
-  </si>
-  <si>
-    <t>COLD TECHNOLOGY PERU S.A.C.</t>
-  </si>
-  <si>
-    <t>COMERCIALIZADORA DE REPUESTOS &amp; SUMINISTROS LA MEJOR S.R.L.</t>
-  </si>
-  <si>
-    <t>COMERCIO AUTOMOTRIZ S.A.C.</t>
-  </si>
-  <si>
-    <t>CORDOVA SERVICE PERU E.I.R.L.</t>
-  </si>
-  <si>
-    <t>CORPORACION DECOVA S.A.C.</t>
-  </si>
-  <si>
-    <t>CORPORACION INZ.COM S.A.C.</t>
-  </si>
-  <si>
-    <t>CORPORACION JOFRAN F&amp;S S.A.C.</t>
-  </si>
-  <si>
-    <t>CORPORACION JOFRAN-CLAUSTE E.I.R.L.</t>
-  </si>
-  <si>
-    <t>CORPORACION MAGIC VAS E.I.R.L.</t>
-  </si>
-  <si>
-    <t>CORPORACION WBU DE REPUESTOS Y SERVICIOS E.I.R.L.</t>
-  </si>
-  <si>
-    <t>CORPORACION Z1 SOCIEDAD ANONIMA CERRADA - CORPORACION Z1 S.A.C.</t>
-  </si>
-  <si>
-    <t>CORPORACION Z1 SUR SOCIEDAD ANONIMA CERRADA</t>
-  </si>
-  <si>
-    <t>CRISTAL FILMS S.A.C.</t>
-  </si>
-  <si>
-    <t>CRISTALES EXPRESS LIMA S.A.C.</t>
-  </si>
-  <si>
-    <t>DAKAL SERVICE BRAKES E.I.R.L.</t>
-  </si>
-  <si>
-    <t>DELTA PERU SOCIEDAD ANONIMA CERRADA</t>
-  </si>
-  <si>
-    <t>DEMA S A</t>
-  </si>
-  <si>
-    <t>DIPCAR.PE S.A.C.</t>
-  </si>
-  <si>
-    <t>DISTRIBUCION E IMPORTACIONES DE REPUESTOS EUROPEOS Y AMERICANOS S.A.C.</t>
-  </si>
-  <si>
-    <t>DISTRIBUCIONES TECNICAS S.A.C.</t>
-  </si>
-  <si>
-    <t>DISTRIBUIDORA DE REPUESTOS ANDINOS E.I.R.L.</t>
-  </si>
-  <si>
-    <t>DISTRIBUIDORA DE REPUESTOS AUTOMOTRICES INDUSTRIALES S.A.C. - DRAI S.A.C.</t>
-  </si>
-  <si>
-    <t>DISTRIBUIDORA VEGA S A</t>
-  </si>
-  <si>
-    <t>EDWIN CAR TUNING SERVICE S.A.C.</t>
-  </si>
-  <si>
-    <t>EL REFUGIO DEL RIDER E.I.R.L.</t>
-  </si>
-  <si>
-    <t>ELECTRICAL PARTS FLORES S.A.C.</t>
-  </si>
-  <si>
-    <t>ELEGANT CARS PERU E.I.R.L- ELEGAN CARS</t>
-  </si>
-  <si>
-    <t>EUROMARCAS S.A.C.</t>
-  </si>
-  <si>
-    <t>EVOLUTION NEW CARS SAC</t>
-  </si>
-  <si>
-    <t>F &amp; D IMPORT SOCIEDAD ANONIMA CERRADA</t>
-  </si>
-  <si>
-    <t>F &amp; E RONDINEL E.I.R.L.</t>
-  </si>
-  <si>
-    <t>FALCONELLO S.A.C.</t>
-  </si>
-  <si>
-    <t>FILTROCENTRO PERU E.I.R.L.</t>
-  </si>
-  <si>
-    <t>G &amp; C INVERSIONES Y NEGOCIOS S.A.C.</t>
-  </si>
-  <si>
-    <t>GARAGE 1640 S.A.C.</t>
-  </si>
-  <si>
-    <t>GB2 SOLUTIONS S.A.C.</t>
-  </si>
-  <si>
-    <t>GNC PARTES S.A.C.</t>
-  </si>
-  <si>
-    <t>GOLD TRACK &amp; CIA S.R.L.</t>
-  </si>
-  <si>
-    <t>GR PERFOMANCE &amp; SERVICE SOCIEDAD COMERCIAL DE RESPONSABILIDAD LIMITADA</t>
-  </si>
-  <si>
-    <t>GRUPO AUTOMOTRIZ DE VEHÍCULOS DE ALTA GAMA S.A.C.</t>
-  </si>
-  <si>
-    <t>HEAD AUTOBOUTIQUE E.I.R.L.</t>
-  </si>
-  <si>
-    <t>HERRAMIENTAS Y MANGUERAS FERNANDO ALONSO E.I.R.L</t>
-  </si>
-  <si>
-    <t>IMPORTACION Y DISTRIBUCION DE REPUESTOS AUTOMOTRIZ ANDINOS E.I.R.L.</t>
-  </si>
-  <si>
-    <t>IMPORTACION Y DISTRIBUCION DE REPUESTOS F &amp; D E.I.R.L.</t>
-  </si>
-  <si>
-    <t>IMPORTACIONES CMC EIRL</t>
-  </si>
-  <si>
-    <t>IMPORTACIONES LAZART S.A.C.</t>
-  </si>
-  <si>
-    <t>IMPORTACIONES ORMAVI SOCIEDAD ANONIMA CERRADA - ORMAVI S.A.C.</t>
-  </si>
-  <si>
-    <t>IMPORTACIONES SAN MIGUEL S.A.C.</t>
-  </si>
-  <si>
-    <t>IMPORTACIONES Y SERVICIOS PYD S.A.C.</t>
-  </si>
-  <si>
-    <t>IMPORTADORA DE AUTOPARTES ANDINOS S.A.C.</t>
-  </si>
-  <si>
-    <t>IMPORTADORA DE REPUESTOS AL TOKE S.A.C.</t>
-  </si>
-  <si>
-    <t>IMPORTADORA DE REPUESTOS PERU S.A.C.</t>
-  </si>
-  <si>
-    <t>IMPORTADORA SATERI EIRL</t>
-  </si>
-  <si>
-    <t>INDUBAT E.I.R.L.</t>
-  </si>
-  <si>
-    <t>INDUSTRIAS MORA S.A.C.</t>
-  </si>
-  <si>
-    <t>INNOVACIONES LYD E.I.R.L.</t>
-  </si>
-  <si>
-    <t>INVERSION LI IMPORT &amp; EXPORT S.A.C</t>
-  </si>
-  <si>
-    <t>INVERSIONES BRANIC S.A.C.</t>
-  </si>
-  <si>
-    <t>INVERSIONES GOLDEN CARS S.A.C.</t>
-  </si>
-  <si>
-    <t>INVERSIONES IMPORTADORA &amp; EXPORTADORA FALUCO E.I.R.L.</t>
-  </si>
-  <si>
-    <t>INVERSIONES LEON X&amp;S S.A.C</t>
-  </si>
-  <si>
-    <t>INVERSIONES MUÑOZ SEGURA &amp; HNOS E.I.R.L.</t>
-  </si>
-  <si>
-    <t>J &amp; J POWER PERU IMPORT EXPORT E.I.R.L.</t>
-  </si>
-  <si>
-    <t>J.CH.COMERCIAL S.A.</t>
-  </si>
-  <si>
-    <t>JB MANGUERAS &amp; REPUESTOS E.I.R.L.</t>
-  </si>
-  <si>
-    <t>JEBES ECERF EMPRESA INDIVIDUAL DE RESPONSABILIDAD LIMITADA - JEBES ECERF E.I.R.L.</t>
-  </si>
-  <si>
-    <t>JOSSIMPORT PERU E.I.R.L.</t>
-  </si>
-  <si>
-    <t>KING FILTERS PERU S.A.C.</t>
-  </si>
-  <si>
-    <t>KING PARTS HONDA S.A.C.</t>
-  </si>
-  <si>
-    <t>LA CALERA SERVICIOS GENERALES S.A.C.</t>
-  </si>
-  <si>
-    <t>LAM HP SERVICIOS GENERALES E.I.R.L.</t>
-  </si>
-  <si>
-    <t>LIMATAMBO CAR SERVICE S.A.</t>
-  </si>
-  <si>
-    <t>LLANTAMIGO S.A.C.</t>
-  </si>
-  <si>
-    <t>LUBRICANTES D`CARLOS E.I.R.L.</t>
-  </si>
-  <si>
-    <t>LUBRICANTES INKA MOTORS INDIVIDUAL DE RESPONSABILIDAD LIMITADA - LIBRICANTES INKA MOTORS E.I.R.L.</t>
-  </si>
-  <si>
-    <t>LUBRIMAX S.A</t>
-  </si>
-  <si>
-    <t>M &amp; M APPLIANCE PARTS S.R.L.</t>
-  </si>
-  <si>
-    <t>M&amp;G AUTOMOTIVE SOCIEDAD ANÓNIMA CERRADA</t>
-  </si>
-  <si>
-    <t>M.M.M. CUEVA IMPORT &amp; EXPORT E.I.R.L.</t>
-  </si>
-  <si>
-    <t>M/R AUTODESIGN E.I.R.L.</t>
-  </si>
-  <si>
-    <t>MAPISA CORPORATION S.A.C.</t>
-  </si>
-  <si>
-    <t>MC TECNOLOGY S.A.C.</t>
-  </si>
-  <si>
-    <t>MECANICA AUTOMOTRIZ J CHINO E.I.R.L.</t>
-  </si>
-  <si>
-    <t>MIAMI PARTS PERU S.A.C.</t>
-  </si>
-  <si>
-    <t>MORA AUTOMOTRIZ &amp; ASOCIADOS S.A.C.</t>
-  </si>
-  <si>
-    <t>MOTORARED S.A.C.</t>
-  </si>
-  <si>
-    <t>MULTIMARCAS ANEXAS EN GRADO E.I.R.L.</t>
-  </si>
-  <si>
-    <t>MULTISERVICIOS E INGENIERIA M &amp; N S.A.C.</t>
-  </si>
-  <si>
-    <t>MY SUPER AUTO S.A.C.</t>
-  </si>
-  <si>
-    <t>NEWGAS IMPORT S.A.C.</t>
-  </si>
-  <si>
-    <t>ORO DIESEL PERU S.A.C.</t>
-  </si>
-  <si>
-    <t>PANGU (PERU) NEW ENERGY VEHICLE SALES S.A.C.</t>
-  </si>
-  <si>
-    <t>PARTS SHOP IMPORT E.I.R.L.</t>
-  </si>
-  <si>
-    <t>PERNOS &amp; TUERCAS ANGAMOS E.I.R.L.</t>
-  </si>
-  <si>
-    <t>PORTSSHING COMPANY S.A.C.</t>
-  </si>
-  <si>
-    <t>PROMAX TRADE IMPORT SOCIEDAD ANONIMA CERRADA</t>
-  </si>
-  <si>
-    <t>QUISWAR S.A.C.</t>
-  </si>
-  <si>
-    <t>R A REPUESTOS ORIGINALES S.A.C.</t>
-  </si>
-  <si>
-    <t>RACING BRAND S.A.C.</t>
-  </si>
-  <si>
-    <t>RADIADORES D &amp; M IMPORT E.I.R.L.</t>
+    <t>FANTASY CLUB DEL PERU S.A.</t>
+  </si>
+  <si>
+    <t>GLOW P. PERU S.A.C.S</t>
+  </si>
+  <si>
+    <t>GRUPO TEATRAL CUERPOS Y ALMA</t>
+  </si>
+  <si>
+    <t>HOOLIGANSS 80S RETTRO E.I.R.L.</t>
+  </si>
+  <si>
+    <t>IBIZA ENTRETENIMIENTOS S.A.C.</t>
+  </si>
+  <si>
+    <t>INNOVADORA DE PROYECTOS S.A.C.S.</t>
+  </si>
+  <si>
+    <t>INSTITUTO NACIONAL DE TEATRO MUSICAL</t>
+  </si>
+  <si>
+    <t>INVERSIONES ANDINAS E &amp; S SOCIEDAD ANONIMA CERRADA-INVERSIONES ANDINAS E &amp; S S.A.C.</t>
+  </si>
+  <si>
+    <t>INVERSIONES HANSON SOCIEDAD ANONIMA CERRADA EN LIQUIDACIÓN</t>
+  </si>
+  <si>
+    <t>INVERSIONES LA NAO CLUB S.A.C.</t>
+  </si>
+  <si>
+    <t>INVERSIONES MENALUTI S.A.C.</t>
+  </si>
+  <si>
+    <t>INVERSIONES MINY E.I.R.L.</t>
+  </si>
+  <si>
+    <t>INVERSIONES TENIENTE BROTHERS SOCIEDAD ANONIMA CERRADA-TENIENTE BROTHERS S.A.C.</t>
+  </si>
+  <si>
+    <t>INVERSIONES WINDEN S.A.C.</t>
+  </si>
+  <si>
+    <t>INVERSIONES Y REPRESENTACIONES MARILOZ S.A.C.</t>
+  </si>
+  <si>
+    <t>IPH PRODUCCIONES SOCIEDAD ANONIMA CERRADA</t>
+  </si>
+  <si>
+    <t>IVERSIONES MIKA &amp; LU E.I.R.L.</t>
+  </si>
+  <si>
+    <t>J&amp;J SERVIGAME S.A.C.</t>
+  </si>
+  <si>
+    <t>JPMV PRODUCCIONES S.A.C.</t>
+  </si>
+  <si>
+    <t>KANTO BAR S.A.C.</t>
+  </si>
+  <si>
+    <t>KCUEN S.A.C.</t>
+  </si>
+  <si>
+    <t>KDM GROUP S.A.C.</t>
+  </si>
+  <si>
+    <t>LA CASA DEL ABUELO E.I.R.L.</t>
+  </si>
+  <si>
+    <t>LA GORRA PRODUCCIONES S.A.C.</t>
+  </si>
+  <si>
+    <t>LACASAPE E.I.R.L.</t>
+  </si>
+  <si>
+    <t>LEVEL MUSIC CORP S.A.C</t>
+  </si>
+  <si>
+    <t>LIMA SALSA E.I.R.L.</t>
+  </si>
+  <si>
+    <t>MACLABM SOLUCIONES S.A.C.</t>
+  </si>
+  <si>
+    <t>MIL IDEAS MIL EVENTOS S.A.C.</t>
+  </si>
+  <si>
+    <t>MJC PRODUCCIONES S.A.C.</t>
+  </si>
+  <si>
+    <t>NEGOCIOS HUAMAYALLI SOCIEDAD ANONIMA CERRADA</t>
+  </si>
+  <si>
+    <t>OKLAHOMA E.I.R.L.</t>
+  </si>
+  <si>
+    <t>OMI ADDE S.A.C.</t>
+  </si>
+  <si>
+    <t>P &amp; A PRODUCTORA S.A.C.</t>
+  </si>
+  <si>
+    <t>REBOBINA - PERU - REBOBINA</t>
+  </si>
+  <si>
+    <t>RECREATIVOS SAIMON SAC</t>
+  </si>
+  <si>
+    <t>RIVAS ENTERTAINMENT S.A.C. - RIVEN S.A.C.</t>
+  </si>
+  <si>
+    <t>SALSA LIVE S.A.C.</t>
+  </si>
+  <si>
+    <t>SEDA PRODUCCIONES S.A.C.</t>
+  </si>
+  <si>
+    <t>SYNERGY CORPORATION S.A.C.</t>
+  </si>
+  <si>
+    <t>SYS PRODUCCIONES S.A.C.</t>
+  </si>
+  <si>
+    <t>TEMPO EXHIBICIONES E.I.R.L.</t>
+  </si>
+  <si>
+    <t>TRES DIRECTO CONSULTORES S.A.C</t>
+  </si>
+  <si>
+    <t>TRITON INN E.I.R.L.</t>
+  </si>
+  <si>
+    <t>UNOS DIAS CON BOBBY</t>
+  </si>
+  <si>
+    <t>YAMY E.I.R.L.</t>
+  </si>
+  <si>
+    <t>ALZALAR S.A.C.</t>
+  </si>
+  <si>
+    <t>AMILLACK´S WEDDING &amp; EVENT PLANNER E.I.R.L.</t>
+  </si>
+  <si>
+    <t>ANSER PERU S.A.C.</t>
+  </si>
+  <si>
+    <t>ATLANTIC &amp; MERCADEO S.A.C.</t>
+  </si>
+  <si>
+    <t>AURACHOW SERVICIOS GENERALES E.I.R.L.</t>
+  </si>
+  <si>
+    <t>BETPERU DE JORJAR S.A.C.</t>
+  </si>
+  <si>
+    <t>CENTRO CULTURAL EDUCATIVO Y FORMACION ARTISTICA LIMA E.I.R.L.</t>
+  </si>
+  <si>
+    <t>CIUDAD MAGICA S.A.C.</t>
+  </si>
+  <si>
+    <t>CLOWNARTE S.A.C.</t>
+  </si>
+  <si>
+    <t>COMIENZOS BRILLANTES E.I.R.L.</t>
+  </si>
+  <si>
+    <t>CONJUNTO MUSICAL GRUPO AMERICA E.I.R.L.</t>
+  </si>
+  <si>
+    <t>CONSORCIO EMPRESARIAL DE EVENTOS E.I.R.L.</t>
+  </si>
+  <si>
+    <t>COROMAX PERU S.A.C.</t>
+  </si>
+  <si>
+    <t>COROTECH PERU S.A.C.</t>
+  </si>
+  <si>
+    <t>CORPORACION ALICHOY S.A.C.-CORP ALICHOY S.A.C.</t>
+  </si>
+  <si>
+    <t>CORPORACION EL SHADDAI SHEFA S.A.C.</t>
+  </si>
+  <si>
+    <t>CORPORACION GAETE Y SARA E.I.R.L.</t>
+  </si>
+  <si>
+    <t>CORPORACION MUSICAL LUCHITO CHAVEZ SOCIEDAD ANONIMA CERRADA</t>
+  </si>
+  <si>
+    <t>CORPORACION MUSICAL MEGA FIESTA S.A.C.</t>
+  </si>
+  <si>
+    <t>CORPORACION PERUANA LOS ANDES S.A.C.</t>
+  </si>
+  <si>
+    <t>DAISHIRE SERVICIOS GENERALES SOCIEDAD ANONIMA CERRADA</t>
+  </si>
+  <si>
+    <t>DARDO COMUNICACIONES S.A.C.</t>
+  </si>
+  <si>
+    <t>DE VUELTA AL RUEDO S.A.C.</t>
+  </si>
+  <si>
+    <t>DICENTIS SOCIEDAD COMERCIAL DE RESPONSABILIDAD LIMITADA</t>
+  </si>
+  <si>
+    <t>DIVIERTEPERU E.I.R.L.</t>
+  </si>
+  <si>
+    <t>EDITORIAL ARTE SIN LIMITES S.A.C.</t>
+  </si>
+  <si>
+    <t>EDWARD 3D S.A.C.</t>
+  </si>
+  <si>
+    <t>ELEGMENTAL MUSIC S.A.C.S.</t>
+  </si>
+  <si>
+    <t>ESPARCIMIENTO TORITO PERU EI.R.L. - TORITO PERU E.I.R.L.</t>
+  </si>
+  <si>
+    <t>ESPECTACULOS MARCABALITO S.A.C.</t>
+  </si>
+  <si>
+    <t>F.M. &amp; SANDDORIA SOCIEDAD COMERCIAL DE RESPONSABILIDAD LIMITADA - F.M. &amp; SANDDORIA S.R.L.</t>
+  </si>
+  <si>
+    <t>FARANDULA PRODUCCIONES S.A.C.</t>
+  </si>
+  <si>
+    <t>FERNANDO MAXIMILIANO LOZANO CHAVEZ EMPRESA INDIVIDUAL DE RESPONSABILIDAD LIMITADA</t>
+  </si>
+  <si>
+    <t>GANALO PERU S.A.C.</t>
+  </si>
+  <si>
+    <t>GIRA PRODUCTORA S.A.C.</t>
+  </si>
+  <si>
+    <t>GLADYS Y FRANCISCO SOCIEDAD ANONIMA CERRADA</t>
+  </si>
+  <si>
+    <t>GLICE PERU SOCIEDAD ANONIMA CERRADA - GLICE PERU S.A.C.</t>
+  </si>
+  <si>
+    <t>GOLDEN CARPET S.R.L.</t>
+  </si>
+  <si>
+    <t>GRUPO FISIODEPOR S.A.C.</t>
+  </si>
+  <si>
+    <t>GRUPO LUIS CARBAJAL S.A.C.</t>
+  </si>
+  <si>
+    <t>HAKUYA EXPEDITION E.I.R.L.</t>
+  </si>
+  <si>
+    <t>HEMMA CORPORATION E.I.R.L.</t>
+  </si>
+  <si>
+    <t>HG &amp; H CREATIVE S.A.C.</t>
+  </si>
+  <si>
+    <t>INVERSIONES CAJA KIDS S.A.C.</t>
+  </si>
+  <si>
+    <t>INVERSIONES FERNANDO &amp; JERRY S.C.R.L.</t>
+  </si>
+  <si>
+    <t>INVERSIONES NOVA GROUP E.I.R.L.</t>
+  </si>
+  <si>
+    <t>INVERSIONES YAWI E.I.R.L</t>
+  </si>
+  <si>
+    <t>IXEL E.I.R.L.</t>
+  </si>
+  <si>
+    <t>J &amp; M COMUNICACIONES Y EVENTOS S.A.C.</t>
+  </si>
+  <si>
+    <t>JASARY E.I.R.L.</t>
+  </si>
+  <si>
+    <t>JEMA GROUP R.C. E.I.R.L.</t>
+  </si>
+  <si>
+    <t>JOSIMAR &amp; ORQUESTA EVENTOS SHOWS INTERNATIONAL INVERSIONES S.A.C.</t>
+  </si>
+  <si>
+    <t>KARIS FANTASY E.I.R.L.</t>
+  </si>
+  <si>
+    <t>LA TAURINA S.A.C.</t>
+  </si>
+  <si>
+    <t>MALL VIRTUAL PERU EMPRESA INDIVIDUAL DE RESPONSABILIDAD LIMITADA</t>
+  </si>
+  <si>
+    <t>MANCHEGO PERU E.I.R.L.</t>
+  </si>
+  <si>
+    <t>MARENA CORP S.A.C.</t>
+  </si>
+  <si>
+    <t>MAT FLYING E.I.R.L.</t>
+  </si>
+  <si>
+    <t>MDG SOLUCIONES EN COMUNICACION S.A</t>
+  </si>
+  <si>
+    <t>MR DANGER PRODUCTIONS S.A.C.</t>
+  </si>
+  <si>
+    <t>NOVA CREATIVA S.A.C.</t>
+  </si>
+  <si>
+    <t>NUTRIPERU.COM.PE E.I.R.L.</t>
+  </si>
+  <si>
+    <t>OJEDA MAQUINARIAS INGENIERIA Y CONSTRUCCION S.A.C.</t>
+  </si>
+  <si>
+    <t>PARADISE VACATION COMERCIALIZADORA S.A.C.</t>
+  </si>
+  <si>
+    <t>PERU MAGA SAC</t>
+  </si>
+  <si>
+    <t>PINCELA S.A.C.</t>
+  </si>
+  <si>
+    <t>RECEPCIONES Y EVENTOS EL DORADO S.A.C.</t>
+  </si>
+  <si>
+    <t>REPRESENTACIONES ESTELA E.I.R.L.</t>
+  </si>
+  <si>
+    <t>SHOW VIRTUAL &amp; SERVICIOS S.A.C.</t>
+  </si>
+  <si>
+    <t>SON RUMBEKE E.I.R.L.</t>
+  </si>
+  <si>
+    <t>SUEÑA Y DESEA PRODUCCIONES S.A.C.</t>
+  </si>
+  <si>
+    <t>SUERTUDOS S.A.C.</t>
+  </si>
+  <si>
+    <t>T Y T SERVICE S.R.LTDA</t>
+  </si>
+  <si>
+    <t>TRINQUERAZO INVERSIONES E.I.R.L.</t>
+  </si>
+  <si>
+    <t>UP GRADUACIONES E.I.R.L.</t>
+  </si>
+  <si>
+    <t>AD ENTERTAINMENT PERU S.A.C.</t>
+  </si>
+  <si>
+    <t>ADVENEDIZO DIGITAL E.I.R.L.</t>
+  </si>
+  <si>
+    <t>ARTE Y ESPECTACULO S.A.C.</t>
+  </si>
+  <si>
+    <t>ASOCIACION ORQUESTAS INFANTILES Y JUVENILES DEL PERU</t>
+  </si>
+  <si>
+    <t>AVANFIRT S.A.C.</t>
+  </si>
+  <si>
+    <t>BORANDA PRODUCCIONES S.A.C.</t>
+  </si>
+  <si>
+    <t>CAPITAL RJJ S.A.C</t>
+  </si>
+  <si>
+    <t>CHILLIN PRODUCCIONES S.A.C.</t>
+  </si>
+  <si>
+    <t>CIAN S.A.C.</t>
+  </si>
+  <si>
+    <t>CONSULTORIA ESPECIALIZADA Y SERVICIOS GENERALES FT S.A.C.</t>
+  </si>
+  <si>
+    <t>CORPORACION SUPERNOVA S.A.C.</t>
+  </si>
+  <si>
+    <t>DLUYTA PRODUCCIONES E.I.R.L.</t>
+  </si>
+  <si>
+    <t>EG EVENT PLANNERS E.I.R.L.</t>
+  </si>
+  <si>
+    <t>ENTERPRISE GALAXY S.A.C.</t>
+  </si>
+  <si>
+    <t>FC SISTEMAS AUDIOVISUALES E.I.R.L.</t>
+  </si>
+  <si>
+    <t>FERIAR S.A.C.</t>
+  </si>
+  <si>
+    <t>FUNNY TIME PRODUCCIONES S.A.C.</t>
+  </si>
+  <si>
+    <t>FUTURO CREATIVO Y SOLUCIONES PARA EL DESARROLLO E.I.R.L.</t>
+  </si>
+  <si>
+    <t>GI PRODUCCIONES MUSICALES Y AUDIOVISUALES S.A.C.</t>
+  </si>
+  <si>
+    <t>HAZAN EVENTOS E.I.R.L.</t>
+  </si>
+  <si>
+    <t>HORIZONTE TRAVEL VIAJES Y ESPECTACULOS S.A.C.</t>
+  </si>
+  <si>
+    <t>HURTADO ART EMPRESA INDIVIDUAL DE RESPONSABILIDAD LIMITADA</t>
+  </si>
+  <si>
+    <t>INFINITY GAMING PERU S.A.C.</t>
+  </si>
+  <si>
+    <t>INVERSIONES ROD S.A.C.</t>
+  </si>
+  <si>
+    <t>LA PICANTE ORQUESTA S.A.C.</t>
+  </si>
+  <si>
+    <t>LA VIDA MISMA FILMS E.I.R.L.</t>
+  </si>
+  <si>
+    <t>LISTOS YA EVENTOS BTL E.I.R.L.</t>
+  </si>
+  <si>
+    <t>MACHIN PRODUCCIONES S.A.C.</t>
+  </si>
+  <si>
+    <t>METAFORA - COMUNICACION CREATIVA EIRL</t>
+  </si>
+  <si>
+    <t>MO PRINT S.A.C.</t>
+  </si>
+  <si>
+    <t>MULTIMUSICA LATAM S.A.C.</t>
+  </si>
+  <si>
+    <t>NDG CORP E.I.R.L.</t>
+  </si>
+  <si>
+    <t>OS PRODUCCIONES &amp; EVENTOS S.A.C.S</t>
+  </si>
+  <si>
+    <t>PARQUES ACUATICOS DE LIMA S.A.C.</t>
+  </si>
+  <si>
+    <t>PERU JUMP S.A.C.</t>
+  </si>
+  <si>
+    <t>PRODUCTORA LA RUTA E.I.R.L.</t>
+  </si>
+  <si>
+    <t>SALTITOS PERU E.I.R.L.</t>
+  </si>
+  <si>
+    <t>SECURITYSYSTEM G &amp; J S.A.C.</t>
+  </si>
+  <si>
+    <t>SIN FRENOS PRODUCTORA DE EVENTOS S.A.C.S</t>
+  </si>
+  <si>
+    <t>SON TENTACION E.I.R.L.</t>
+  </si>
+  <si>
+    <t>SONIDO ABSOLUTO SOCIEDAD ANONIMA CERRADA</t>
+  </si>
+  <si>
+    <t>STUDIO CONCERTS S.A.C.</t>
+  </si>
+  <si>
+    <t>STUDIO TRES PERU S.A.C.</t>
+  </si>
+  <si>
+    <t>SUPERNOVA SAN MIGUEL SAC</t>
+  </si>
+  <si>
+    <t>TAJ INVERSIONES S.A.C.</t>
+  </si>
+  <si>
+    <t>TAKI MKT PRODUCCIONES SOCIEDAD ANONIMA CERRADA - TAKI MKT PRODUCCIONES S.A.C.</t>
+  </si>
+  <si>
+    <t>TEMPLE SOUR S.A.C.</t>
+  </si>
+  <si>
+    <t>TRAVEL LEADERS E.I.R.L.</t>
+  </si>
+  <si>
+    <t>VALESSIO PRODUCCIONES E.I.R.L.</t>
+  </si>
+  <si>
+    <t>VARDE S.R.L.</t>
+  </si>
+  <si>
+    <t>WOMANDS ENTERTAINMENT S.A.C.</t>
+  </si>
+  <si>
+    <t>YOUNG KINGX E.I.R.L.</t>
+  </si>
+  <si>
+    <t>3CD PARTNERS E.I.R.L.</t>
+  </si>
+  <si>
+    <t>A TU MAMA LE DICEN SOCIEDAD ANONIMA CERRADA</t>
+  </si>
+  <si>
+    <t>A.S.I.A. CERVECERIA &amp; ENTRETENIMIENTO S.A.C.</t>
+  </si>
+  <si>
+    <t>ABRUJA ENTERTAINMENT S.A.C.</t>
+  </si>
+  <si>
+    <t>ADRENALINE RIDES E.I.R.L.</t>
+  </si>
+  <si>
+    <t>AEROWALLS S.A.C.</t>
+  </si>
+  <si>
+    <t>AFFILIATED MARKETING GROUP SOCIEDAD ANONIMA CERRADA</t>
+  </si>
+  <si>
+    <t>AIZEA CULTURAL PERU S.A.C.</t>
+  </si>
+  <si>
+    <t>ALCANFORES 1281 S.A.C.</t>
+  </si>
+  <si>
+    <t>AMS INNOVACION DIGITAL SOCIEDAD ANONIMA CERRADA</t>
+  </si>
+  <si>
+    <t>AMUSEMENT PARKS I S.A.C.</t>
+  </si>
+  <si>
+    <t>AMUSEMENT PARKS S.A.C.</t>
+  </si>
+  <si>
+    <t>ANEMONA PRODUCCIONES S.A.C.</t>
+  </si>
+  <si>
+    <t>ANKARA PRODUCCIONES S.A.C.</t>
+  </si>
+  <si>
+    <t>ANLELUFA S.A.C.</t>
+  </si>
+  <si>
+    <t>ANN DREYFUZ S.A.C.</t>
+  </si>
+  <si>
+    <t>ANTOINE &amp; BURGA ASOCIADOS S.A.C.</t>
+  </si>
+  <si>
+    <t>ANTRIM SOCIEDAD ANONIMA CERRADA</t>
+  </si>
+  <si>
+    <t>AR PERU SOCIEDAD ANONIMA CERRADA</t>
+  </si>
+  <si>
+    <t>ARI SERVICIOS MULTIMEDIA S.A.C</t>
+  </si>
+  <si>
+    <t>ARTE &amp; ESCENA SOCIEDAD ANONIMA CERRADA - ARTE &amp; ESCENA S.A.C.</t>
+  </si>
+  <si>
+    <t>ARTISTAS CARISA S.A.C.</t>
+  </si>
+  <si>
+    <t>ASOCIACION ARTE DE ALTURAS</t>
+  </si>
+  <si>
+    <t>ASOCIACION CENTRAL SATELITE</t>
+  </si>
+  <si>
+    <t>ASOCIACION CLUB PLAYA BONITA</t>
+  </si>
+  <si>
+    <t>ASOCIACION CULTURAL DRAMA</t>
+  </si>
+  <si>
+    <t>ASOCIACION CULTURAL ESCENA PERU</t>
+  </si>
+  <si>
+    <t>ASOCIACION CULTURAL PERUANA VENEZOLANA</t>
+  </si>
+  <si>
+    <t>ASOCIACION CULTURAL ¡AL TEATRO POR PRIMERA VEZ¡</t>
+  </si>
+  <si>
+    <t>ASOCIACION DE EXALUMNOS DEL COLEGIO MARKHAM OMA</t>
+  </si>
+  <si>
+    <t>ASOCIACION DE TECNICOS CINEMATOGRAFICOS DEL PERU</t>
+  </si>
+  <si>
+    <t>ASOCIACION JARABE DE CLOWN</t>
+  </si>
+  <si>
+    <t>AUROLED S.A.C.</t>
+  </si>
+  <si>
+    <t>AUSTRIA 05 RECORDS S.A.C.</t>
+  </si>
+  <si>
+    <t>AVAMNTI SOCIEDAD ANONIMA CERRADA</t>
+  </si>
+  <si>
+    <t>AVPACHE EMPRESA INDIVIDUAL DE RESPONSABILIDAD LIMITADA</t>
+  </si>
+  <si>
+    <t>AYLA CENTRO PERUANO DE MUSICA</t>
+  </si>
+  <si>
+    <t>B &amp; R CONSULTORES DE COMUNICACION S.A.C.</t>
+  </si>
+  <si>
+    <t>BARRIO VILLA S.A.C.</t>
+  </si>
+  <si>
+    <t>BELLA VISTA COFFEE S.R.L.</t>
+  </si>
+  <si>
+    <t>BERGMAN WAS RIGHT FILMS SOCIEDAD ANONIMA CERRADA - BWRF S.A.C.</t>
+  </si>
+  <si>
+    <t>BIG SURPRISE S.A.C.</t>
+  </si>
+  <si>
+    <t>BLACKMAMBA CREATIVE S.A.C.</t>
+  </si>
+  <si>
+    <t>BLACKMAMBA PRODUCCIONES E.I.R.L.</t>
+  </si>
+  <si>
+    <t>BOMBO TICKETS S.A.C.</t>
+  </si>
+  <si>
+    <t>BOXISS E.I.R.L.</t>
+  </si>
+  <si>
+    <t>BQUATE CORP S.A.C.</t>
+  </si>
+  <si>
+    <t>BRILLA ENTRETENIMIENTO Y PRODUCCIONES E.I.R.L</t>
+  </si>
+  <si>
+    <t>BRJ PRODUCCIONES S.A.C.</t>
+  </si>
+  <si>
+    <t>BUBALINA G &amp; S PRODUCCIONES SOCIEDAD ANONIMA CERRADA - BUBALINA G &amp; S</t>
+  </si>
+  <si>
+    <t>BYL TRUJILLO S.A.C.</t>
+  </si>
+  <si>
+    <t>C &amp; S STORE EVENTOS S.A.C.</t>
+  </si>
+  <si>
+    <t>C-ADVENTURES PERU E.I.R.L.</t>
+  </si>
+  <si>
+    <t>CABINA LIBRE S.A.C.</t>
+  </si>
+  <si>
+    <t>CANTIAMO S.A.C.</t>
+  </si>
+  <si>
+    <t>CAPA GAMES SOCIEDAD ANONIMA CERRADA - CAPA GAMES S.A.C.</t>
+  </si>
+  <si>
+    <t>CARNAVAL PRODUCCIONES S.A.C.</t>
+  </si>
+  <si>
+    <t>CASINOS PERUANOS S.A.C.</t>
+  </si>
+  <si>
+    <t>CASINOS Y JUEGOS ELECTRONICOS S.A.C.</t>
+  </si>
+  <si>
+    <t>CB EN VIVO SAC</t>
+  </si>
+  <si>
+    <t>CENTRO DE FORMACION Y DESARROLLO PERSONAL S.A.C.</t>
+  </si>
+  <si>
+    <t>CENTRO LATINOAMERICANO PARA LA PRESERVACION CULTURAL E.I.R.L.</t>
+  </si>
+  <si>
+    <t>CHASKY RALLY CENTRAL PARK SOCIEDAD ANONIMA CERRADA - CHASKY RALLY S.A.C.</t>
+  </si>
+  <si>
+    <t>CHOCOCHIFLE S.A.C.</t>
+  </si>
+  <si>
+    <t>CIP PRODUCCIONES S.A.C.</t>
+  </si>
+  <si>
+    <t>CIRCO MAGICO E.I.R.L.</t>
+  </si>
+  <si>
+    <t>CLAUDIA EYZAGUIRRE DIAZ E.I.R.L.</t>
+  </si>
+  <si>
+    <t>CLUB DE TEATRO DE LIMA</t>
+  </si>
+  <si>
+    <t>COLMENA GAMING PERU SOCIEDAD ANONIMA CERRADA - COLMENA GAMING S.A.C.</t>
+  </si>
+  <si>
+    <t>COMPAÑIA BLACK TRACK S.A.C.- BLACK TRACK S.A.C.</t>
+  </si>
+  <si>
+    <t>COMUNICACION PSICOCREATIVA PERU SOCIEDAD ANONIMA CERRADA</t>
+  </si>
+  <si>
+    <t>CONSORCIO VELTRAC - UNNICO</t>
+  </si>
+  <si>
+    <t>CONTACTO ENCUESTAS Y MARKETING S.A.C.</t>
+  </si>
+  <si>
+    <t>COOL PERUVIAN FOOD S.A.C.</t>
+  </si>
+  <si>
+    <t>CORNER POCKET S.A.C.</t>
+  </si>
+  <si>
+    <t>CORP PERU CLOWN S.A.C.</t>
+  </si>
+  <si>
+    <t>CORPORACION CONTIGO PERU SOCIEDAD ANONIMA CERRADA-CORPORACION CONTIGO PE S.A.C</t>
+  </si>
+  <si>
+    <t>CORPORACION NARDOS S.A.C.</t>
+  </si>
+  <si>
+    <t>CREATIBOOM S.A.C.</t>
+  </si>
+  <si>
+    <t>CUATRO &amp; COMPAÑIA E.I.R.L.</t>
+  </si>
+  <si>
+    <t>CW STUDIO S.A.C.</t>
+  </si>
+  <si>
+    <t>D &amp; E PRODUCCIONES S.A.C</t>
+  </si>
+  <si>
+    <t>D'FITNESS S.A.C.</t>
+  </si>
+  <si>
+    <t>DAME TU PLATA S.A.C.</t>
+  </si>
+  <si>
+    <t>DANDEDIAG E.I.R.L.</t>
+  </si>
+  <si>
+    <t>DECOART PARTY E.I.R.L.</t>
+  </si>
+  <si>
+    <t>DELIVERY EFFICIENCY PERU E.I.R.L.</t>
+  </si>
+  <si>
+    <t>DEVOXA E.I.R.L.</t>
+  </si>
+  <si>
+    <t>DINOPARK S.A.C.</t>
+  </si>
+  <si>
+    <t>DISEÑO POLAR S.A.C.</t>
+  </si>
+  <si>
+    <t>DIVERSION GALA INVERSIONES SOCIEDAD ANONIMA CERRADA</t>
+  </si>
+  <si>
+    <t>DIVINA CULTURA</t>
+  </si>
+  <si>
+    <t>DONT STOP THE PARTY E.I.R.L.</t>
+  </si>
+  <si>
+    <t>DREAMS GAMING S.A.C</t>
+  </si>
+  <si>
+    <t>EBDA S.A.C.</t>
+  </si>
+  <si>
+    <t>EBDA SAN MIGUEL S.A.C.</t>
+  </si>
+  <si>
+    <t>ECOLOGÍSTICA Y DISTRIBUCIÓN SOCIEDAD - ECOLOGÍSTICA Y DISTRIBUCIÓN S.A.C.</t>
+  </si>
+  <si>
+    <t>ECONORTE SAC</t>
+  </si>
+  <si>
+    <t>EKATY E.I.R.L.</t>
+  </si>
+  <si>
+    <t>EL BEAT DE NINA E.I.R.L.</t>
+  </si>
+  <si>
+    <t>EL ENFERMO IMAGINARIO</t>
+  </si>
+  <si>
+    <t>EL ESTUDIO S.A.C.</t>
+  </si>
+  <si>
+    <t>EL HADA PRODUCCIONES E.I.R.L.</t>
+  </si>
+  <si>
+    <t>EL TALLER AMARILLO SOCIEDAD ANONIMA CERRADA</t>
+  </si>
+  <si>
+    <t>ELI'S PLACE E.I.R.L.</t>
+  </si>
+  <si>
+    <t>ELISA RECORDS SOCIEDAD ANONIMA CERRADA - ELISA RECORDS S.A.C.</t>
+  </si>
+  <si>
+    <t>ELOW. ENTERTAINMENT SOCIEDAD ANONIMA CERRADA</t>
+  </si>
+  <si>
+    <t>EPLAY ENTERTAINMENT S.A.C.</t>
+  </si>
+  <si>
+    <t>ESCALADA Y MAS SAC</t>
+  </si>
+  <si>
+    <t>ESCUADRONE S.A.C.</t>
+  </si>
+  <si>
+    <t>ESFERA VERDE S.A.C.</t>
+  </si>
+  <si>
+    <t>ESPEJO PRO PERU SAC</t>
+  </si>
+  <si>
+    <t>EVENTFUL S.A.C.</t>
+  </si>
+  <si>
+    <t>EVENTS SOLUTIONS PRODUCCIONES S.A.C.</t>
+  </si>
+  <si>
+    <t>EX CLASH PERU S.A.C.S.</t>
+  </si>
+  <si>
+    <t>EXPORTO BRASIL E.I.R.L.</t>
+  </si>
+  <si>
+    <t>EXPRESS STUDIOS E.I.R.L.</t>
+  </si>
+  <si>
+    <t>F &amp; M ENTERTAIMENT S.A.C.</t>
+  </si>
+  <si>
+    <t>FANS &amp; MUSIC ENTERTAIMENT S.A.C.</t>
+  </si>
+  <si>
+    <t>FAST TICKET S.A.C.</t>
+  </si>
+  <si>
+    <t>FBM SPORTS S.A.C.</t>
+  </si>
+  <si>
+    <t>FD FANTASY DREAMS S.A.C.</t>
+  </si>
+  <si>
+    <t>FESTIVAL JUNTOS PARA TI S.A.C.</t>
+  </si>
+  <si>
+    <t>FIORELLA VALENCIA STUDIO SOCIEDAD ANONIMA CERRADA - FIORELLA VALENCIA STUDIO S.A.C.</t>
+  </si>
+  <si>
+    <t>FLEXIBLE LAB S.A.C.</t>
+  </si>
+  <si>
+    <t>FP MUSICA EMPRESA INDIVIDUAL DE RESPONSABILIDAD LIMITADA - FP MUSICA E.I.R.L.</t>
+  </si>
+  <si>
+    <t>FR 77 S.A.C.</t>
+  </si>
+  <si>
+    <t>FUN &amp; SHOW S.A.C.</t>
+  </si>
+  <si>
+    <t>FUTMAX LEAGUE SOCIEDAD ANONIMA CERRADA</t>
+  </si>
+  <si>
+    <t>FYNIX S.A.C.</t>
+  </si>
+  <si>
+    <t>GALAFIN S.A.C.</t>
+  </si>
+  <si>
+    <t>GALERIA MOLL S R L</t>
+  </si>
+  <si>
+    <t>GAMECO PERU SOCIEDAD ANONIMA CERRADA - GAMECO PERU S.A.C.</t>
+  </si>
+  <si>
+    <t>GAMMA SHOPPER SOCIEDAD ANONIMA CERRADA</t>
+  </si>
+  <si>
+    <t>GANA BOOM S.A.C.</t>
+  </si>
+  <si>
+    <t>GIANELLA NEYRA E.I.R.L.</t>
+  </si>
+  <si>
+    <t>GLOBO ROJO S.R.L.</t>
+  </si>
+  <si>
+    <t>GLOW UP PERÚ S.A.C.</t>
+  </si>
+  <si>
+    <t>GOLDEN LION GROUP S.A.C.</t>
+  </si>
+  <si>
+    <t>GOLDEN SOUL S.A.C.</t>
+  </si>
+  <si>
+    <t>GPA SERVICIOS GENERALES SAC</t>
+  </si>
+  <si>
+    <t>GRUPO LA FABRIKA S.A.C.</t>
+  </si>
+  <si>
+    <t>GRUPO LA261 S.A.C.</t>
+  </si>
+  <si>
+    <t>GRUPO TONAS E.I.R.L.</t>
+  </si>
+  <si>
+    <t>GRUPO TRES MARIAS S.A.C.</t>
+  </si>
+  <si>
+    <t>HABITADO S.A.C.</t>
+  </si>
+  <si>
+    <t>HAPPY TIMES ENTERTAINMENT S.A.C.</t>
+  </si>
+  <si>
+    <t>HEMAGGI E.I.R.L.</t>
+  </si>
+  <si>
+    <t>HEY! L'AMOUR E.I.R.L.</t>
+  </si>
+  <si>
+    <t>HIDEPER SOCIEDAD ANONIMA CERRADA - HIDEPER S.A.C.</t>
+  </si>
+  <si>
+    <t>HUGO SOTILLO INVERSIONES Y PRODUCCIONES E.I.R.L.</t>
+  </si>
+  <si>
+    <t>IGNITE GROUP S.A.C.</t>
+  </si>
+  <si>
+    <t>IMAGINA EVENTI S.A.C.</t>
+  </si>
+  <si>
+    <t>IMPACTO DEPORTIVO S.A.C.</t>
+  </si>
+  <si>
+    <t>IMPACTO POSITIVO GROUP S.A.C.</t>
+  </si>
+  <si>
+    <t>IMPERIAL SLOTS GAMING S.A.C.</t>
+  </si>
+  <si>
+    <t>IMPERIO BET SOCIEDAD ANONIMA CERRADA</t>
+  </si>
+  <si>
+    <t>IN ON IT S.A.C.</t>
+  </si>
+  <si>
+    <t>INMOBILIARIA LAS GAMBUSINAS S A</t>
+  </si>
+  <si>
+    <t>INTERPLAY WORD S.A.C.</t>
+  </si>
+  <si>
+    <t>INTI Y VICENTE S.A.C.</t>
+  </si>
+  <si>
+    <t>INVERSIONES CARITOL S.A.C.</t>
+  </si>
+  <si>
+    <t>INVERSIONES DAKAT S.A.C.</t>
+  </si>
+  <si>
+    <t>INVERSIONES EL TARMEÑO S.A.C.</t>
+  </si>
+  <si>
+    <t>INVERSIONES ENTERPRO S.A.C.</t>
+  </si>
+  <si>
+    <t>INVERSIONES FAURA S.A.C</t>
+  </si>
+  <si>
+    <t>INVERSIONES GNF E.I.R.L.</t>
+  </si>
+  <si>
+    <t>INVERSIONES J.J.C.C. E.I.R.L.</t>
+  </si>
+  <si>
+    <t>INVERSIONES J.T.L. S.A.C.</t>
+  </si>
+  <si>
+    <t>INVERSIONES ZOIMAR E.I.R.L</t>
+  </si>
+  <si>
+    <t>IRISLS S.A.C.</t>
+  </si>
+  <si>
+    <t>J &amp; M SLOTS S.A.C.</t>
+  </si>
+  <si>
+    <t>J.U.Z. PRODUCTION 2014 E.I.R.L</t>
+  </si>
+  <si>
+    <t>JAF CORP S.A.C.</t>
+  </si>
+  <si>
+    <t>JOINNUS SAC</t>
+  </si>
+  <si>
+    <t>LIFE MUSIC MANAGEMENT S.A.C.</t>
+  </si>
+  <si>
+    <t>LONG PLAY ENTERTAINMENT SOCIEDAD ANONIMA CERRADA - LONG PLAY ENTERTAINMENT S.A.C.</t>
+  </si>
+  <si>
+    <t>LOS ARDILES PRODUCCIONES S.A.C.</t>
+  </si>
+  <si>
+    <t>LUNA PROJECTS S.A.C.</t>
+  </si>
+  <si>
+    <t>LUPA MEDIA E INTERACTIVA SOCIEDAD ANONIMA CERRADA</t>
+  </si>
+  <si>
+    <t>LUX M&amp;M PRODUCCIONES S.A.C.</t>
+  </si>
+  <si>
+    <t>MAGAUDC E.I.R.L</t>
+  </si>
+  <si>
+    <t>MARDIGRAS S.A.C</t>
+  </si>
+  <si>
+    <t>MARYNORTE S.A.C.</t>
+  </si>
+  <si>
+    <t>MASNOU REPRESENTACIONES S.A.C.</t>
+  </si>
+  <si>
+    <t>MATAOJO S.A.C.</t>
+  </si>
+  <si>
+    <t>MAURICIO LORET DE MOLA CAMINATI E.I.R.L.</t>
+  </si>
+  <si>
+    <t>MCV FAROLA SOCIEDAD ANONIMA CERRADA - MCV FAROLA S.A.C.</t>
+  </si>
+  <si>
+    <t>METROPOLIS GAMES SOCIEDAD ANONIMA CERRADA</t>
+  </si>
+  <si>
+    <t>MIJICORP S.A.C.</t>
+  </si>
+  <si>
+    <t>MOCCA EVENTOS S.A.C.</t>
+  </si>
+  <si>
+    <t>MONHERZ E.I.R.L.</t>
+  </si>
+  <si>
+    <t>MONICA MADUEÑO PRODUCCIONES S.A.C.</t>
+  </si>
+  <si>
+    <t>MUCHO MUSIC S.R.L.</t>
+  </si>
+  <si>
+    <t>MUNDO DIVERTIDO S.A.C.</t>
+  </si>
+  <si>
+    <t>MUSIC SOLUTIONS S.A..C</t>
+  </si>
+  <si>
+    <t>MUSICANDES ASOCIACION CULTURAL</t>
+  </si>
+  <si>
+    <t>N.C. SERVICIOS Y PROMOCION DEL ARTE PUBLICIDAD Y FOLKLOR E.I.R.L.</t>
+  </si>
+  <si>
+    <t>NADALE PRODUCCIONES S.A.C.</t>
+  </si>
+  <si>
+    <t>NEW ICON MANAGEMENT S.A.C.</t>
+  </si>
+  <si>
+    <t>NIKITA EVENTOS S.A.C.</t>
+  </si>
+  <si>
+    <t>NORTHMAN S.A.C. EN LIQUIDACION</t>
+  </si>
+  <si>
+    <t>OLYMPVS S.A.C.</t>
+  </si>
+  <si>
+    <t>ONE PRODUCTION S.A.C.</t>
+  </si>
+  <si>
+    <t>ORACLES E.I.R.L.</t>
+  </si>
+  <si>
+    <t>PARALLEL MEDIA S.A.C</t>
+  </si>
+  <si>
+    <t>PASEOS MARINOS S.A.C.</t>
+  </si>
+  <si>
+    <t>PATRICIA ROMERO EVENTOS A TU MEDIDA E.I.R.L</t>
+  </si>
+  <si>
+    <t>PDR PERU S.A.C.</t>
+  </si>
+  <si>
+    <t>PEKE PARK S.A.C.</t>
+  </si>
+  <si>
+    <t>PERCULAB S.A.C.</t>
+  </si>
+  <si>
+    <t>PERIODISMO LIBRE E.I.R.L</t>
+  </si>
+  <si>
+    <t>PERU BET S.A.C.</t>
+  </si>
+  <si>
+    <t>PERUCOL AMUSEMENT S.A.C.</t>
+  </si>
+  <si>
+    <t>PERUVIANARCHITECTS TC SOCIEDAD ANONIMA CERRADA</t>
+  </si>
+  <si>
+    <t>PJ EVENTOS E.I.R.L.</t>
+  </si>
+  <si>
+    <t>PLASTIC S.A.C.</t>
+  </si>
+  <si>
+    <t>POLLERA S.A.</t>
+  </si>
+  <si>
+    <t>PRO MUSIC PRODUCTION S.A.C.</t>
+  </si>
+  <si>
+    <t>PRODUCCIONES ACQUARIO SRL</t>
+  </si>
+  <si>
+    <t>PRODUCCIONES Y EVENTOS CHAVESTA &amp; LIEBANA SOCIEDAD ANONIMA CERRADA</t>
+  </si>
+  <si>
+    <t>PRODUCTORA FIESTA PRIVADA S.A.C.</t>
+  </si>
+  <si>
+    <t>PROFFESSIONAL TECHNICAL SOLUTIONS SOCIEDAD ANONIMA CERRADA</t>
+  </si>
+  <si>
+    <t>PURA VIBRA PRODUCCIONES S.A.C.</t>
+  </si>
+  <si>
+    <t>QUANTICO PRODUCCIONES SAC</t>
+  </si>
+  <si>
+    <t>QUINTO AS S.A.C.</t>
+  </si>
+  <si>
+    <t>QY PRODUCCIONES S.A.C.</t>
+  </si>
+  <si>
+    <t>RADIOPOLIS MUSIC S.A.C.</t>
+  </si>
+  <si>
+    <t>RAIA Y IKONE WORLDWIDE S.A.C.</t>
+  </si>
+  <si>
+    <t>RD PRODUCCIONES DE MODA Y SERVICIOS GENERALES SOCIEDAD ANONIMA CERRADA-RD PRODUCCIONES DE MODA S.A.C</t>
+  </si>
+  <si>
+    <t>REALIMPIC S.A.C.</t>
+  </si>
+  <si>
+    <t>RECREATIVOS EL GALEON S.A.C.</t>
+  </si>
+  <si>
+    <t>RENCO SERVICES E.I.R.L.</t>
+  </si>
+  <si>
+    <t>RESISTE S.A.C.</t>
+  </si>
+  <si>
+    <t>REY MIDAS ENTRETENIMIENTOS S.A.C.</t>
+  </si>
+  <si>
+    <t>RIO GAMING SOCIEDAD ANONIMA CERRADA</t>
+  </si>
+  <si>
+    <t>RM SPORTAINMENT AGENCY E.I.R.L.</t>
+  </si>
+  <si>
+    <t>ROCIO FRANCISCA S.A.C.</t>
+  </si>
+  <si>
+    <t>SAHA MONT E.I.R.L.</t>
+  </si>
+  <si>
+    <t>SAMA ACTIVITY S.A.C.</t>
+  </si>
+  <si>
+    <t>SANTA CECILIA INVESTMENT S.A.C.</t>
+  </si>
+  <si>
+    <t>SCENIKA PRODUCCIONES S.A.C</t>
+  </si>
+  <si>
+    <t>SERVICIOS EVENTOS CONSULTORIA S.A.C.-SEVENCO S.A.C.</t>
+  </si>
+  <si>
+    <t>SERVICIOS VENUS EMPRESA INDIVIDUAL DE RESPONSABILIDAD LIMITADA - SERVICIOS VENUS E.I.R.L.</t>
+  </si>
+  <si>
+    <t>SERVICIOS Y PRESTACIONES GENERALES ELEOS EMPRESA INDIVIDUAL DE RESPONSABILIDAD LIMITADA</t>
+  </si>
+  <si>
+    <t>SFG CO. SOCIEDAD ANONIMA CERRADA - SFG CO. S.A.C.</t>
+  </si>
+  <si>
+    <t>SHIAC E.I.R.L.</t>
+  </si>
+  <si>
+    <t>SILVIA PALOMINO DECO Y ARTE S.A.C.</t>
+  </si>
+  <si>
+    <t>SINGULAR LATIN E.I.R.L.</t>
+  </si>
+  <si>
+    <t>SOFTNYX PERU S.A.C.</t>
+  </si>
+  <si>
+    <t>SOMOS MAGIA E.I.R.L.</t>
+  </si>
+  <si>
+    <t>SONY MUSIC ENTERTAINMENT PERU S.A.</t>
+  </si>
+  <si>
+    <t>SOR MIRAFLORES S.A.C.</t>
+  </si>
+  <si>
+    <t>STAGE DANCE CHAMPIONSHIP PERU S.A.C.</t>
+  </si>
+  <si>
+    <t>STAY ENTERTAINMENT S.A.C.</t>
+  </si>
+  <si>
+    <t>STEFANYA PRODUCTIONS S.A.C</t>
+  </si>
+  <si>
+    <t>STEREOMONKEY SOCIEDAD ANONIMA CERRADA</t>
+  </si>
+  <si>
+    <t>SUMAQ INTERNATIONAL CORPORATION SAC</t>
+  </si>
+  <si>
+    <t>T2G S.A.C.</t>
+  </si>
+  <si>
+    <t>TALIA AZCARATE S.A.C.</t>
+  </si>
+  <si>
+    <t>TAN REN MARTIAL ARTS S.A.C.</t>
+  </si>
+  <si>
+    <t>TATAU PERÚ S.A.C</t>
+  </si>
+  <si>
+    <t>TEATRICO PRODUCCIONES S.A.C.</t>
+  </si>
+  <si>
+    <t>TF PRODUCCIONES S.A.C.</t>
+  </si>
+  <si>
+    <t>THE JINGO PROJECT S.A.C.</t>
+  </si>
+  <si>
+    <t>TIRO AL BLANCO GROUP SOCIEDAD ANONIMA CERRADA</t>
+  </si>
+  <si>
+    <t>TM ENGAGEMENT S.A.C.</t>
+  </si>
+  <si>
+    <t>TROPICO PATRONAL S.A.C.</t>
+  </si>
+  <si>
+    <t>TUNETOME PERU SOCIEDAD ANONIMA CERRADA</t>
+  </si>
+  <si>
+    <t>TURISMO CORPORATIVO PL SOCIEDAD ANONIMA CERRADA</t>
+  </si>
+  <si>
+    <t>TUTUMA SOCIEDAD ANONIMA CERRADA</t>
+  </si>
+  <si>
+    <t>TWO PROJECT SOCIEDAD ANONIMA CERRADA - TWO PROJECT S.A.C.</t>
+  </si>
+  <si>
+    <t>UNDER SEC E.I.R.L.</t>
+  </si>
+  <si>
+    <t>URBAN GAMES PERU S.A.C.</t>
+  </si>
+  <si>
+    <t>VABENNE EVENTOS SAC</t>
+  </si>
+  <si>
+    <t>VALERIA GATTI ENTERPRISES SOCIEDAD ANONIMA CERRADA - VALERIA GATTI ENTERPRISES S.A.C.</t>
+  </si>
+  <si>
+    <t>VATO LOCO PRODUCCIONES S.A.C.</t>
+  </si>
+  <si>
+    <t>VEINTE ONCE SERVICIOS ARTISTICOS S.R.L.</t>
+  </si>
+  <si>
+    <t>VELTRAC ENTRETENIMIENTO Y COMUNICACIÓN S.A.C.</t>
+  </si>
+  <si>
+    <t>VENUS FILMS S. A.</t>
+  </si>
+  <si>
+    <t>VIRTUAL POWER PERU S.A.C.</t>
+  </si>
+  <si>
+    <t>VITAL SOLUTIONS E.I.R.L.</t>
+  </si>
+  <si>
+    <t>VOCAL COACHING PERU S.A.C.</t>
+  </si>
+  <si>
+    <t>WESTMAN SAC</t>
+  </si>
+  <si>
+    <t>WIN SYSTEMS GAMING S.A.C.</t>
+  </si>
+  <si>
+    <t>XMOON SOCIEDAD ANONIMA CERRADA</t>
+  </si>
+  <si>
+    <t>YELLOWBRANDS SOCIEDAD ANONIMA CERRADA - YELLOWBRANDS S.A.C.</t>
+  </si>
+  <si>
+    <t>ZACA TV E.I.R.L.</t>
+  </si>
+  <si>
+    <t>ZEIDFILMS S.A.C.</t>
+  </si>
+  <si>
+    <t>ZUMBA PRODUCCIONES S.A.C.</t>
   </si>
 </sst>
 </file>
@@ -1012,10 +1801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F5111E-E63C-42FC-90AA-352ED2BE978B}">
-  <dimension ref="B1:B201"/>
+  <dimension ref="B1:B1099"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1033,7 +1822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1053,23 +1842,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="2:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1089,7 +1878,7 @@
       </c>
     </row>
     <row r="14" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1098,13 +1887,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
+    <row r="16" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1139,7 +1928,7 @@
       </c>
     </row>
     <row r="24" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1174,12 +1963,12 @@
       </c>
     </row>
     <row r="31" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1194,7 +1983,7 @@
       </c>
     </row>
     <row r="35" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1204,17 +1993,17 @@
       </c>
     </row>
     <row r="37" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="2:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="1" t="s">
+    <row r="38" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="39" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1224,7 +2013,7 @@
       </c>
     </row>
     <row r="41" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="1" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1234,27 +2023,27 @@
       </c>
     </row>
     <row r="43" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="44" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="45" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="46" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="1" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1279,7 +2068,7 @@
       </c>
     </row>
     <row r="52" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="2" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1289,7 +2078,7 @@
       </c>
     </row>
     <row r="54" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="2" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1309,32 +2098,32 @@
       </c>
     </row>
     <row r="58" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="2:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="1" t="s">
+    <row r="59" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="60" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="2:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="62" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="63" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="2" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1344,22 +2133,22 @@
       </c>
     </row>
     <row r="65" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="66" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="67" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="68" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="2" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1374,7 +2163,7 @@
       </c>
     </row>
     <row r="71" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="2" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1394,12 +2183,12 @@
       </c>
     </row>
     <row r="75" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="2:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="1" t="s">
+    <row r="76" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="2" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1409,7 +2198,7 @@
       </c>
     </row>
     <row r="78" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="2" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1429,26 +2218,26 @@
       </c>
     </row>
     <row r="82" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="83" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="84" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="85" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="2:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B86" s="1" t="s">
         <v>85</v>
       </c>
@@ -1474,12 +2263,12 @@
       </c>
     </row>
     <row r="91" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="92" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="2" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1494,7 +2283,7 @@
       </c>
     </row>
     <row r="95" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="1" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1514,7 +2303,7 @@
       </c>
     </row>
     <row r="99" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="2" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1524,17 +2313,17 @@
       </c>
     </row>
     <row r="101" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="102" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="1" t="s">
+      <c r="B102" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="103" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="1" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1549,7 +2338,7 @@
       </c>
     </row>
     <row r="106" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="1" t="s">
+      <c r="B106" s="2" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1563,13 +2352,13 @@
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="2:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B109" s="1" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="110" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="1" t="s">
+      <c r="B110" s="2" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1579,17 +2368,17 @@
       </c>
     </row>
     <row r="112" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="1" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="113" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="2" t="s">
+      <c r="B113" s="1" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="114" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="1" t="s">
+      <c r="B114" s="2" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1604,11 +2393,11 @@
       </c>
     </row>
     <row r="117" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="2" t="s">
+      <c r="B117" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B118" s="1" t="s">
         <v>117</v>
       </c>
@@ -1619,7 +2408,7 @@
       </c>
     </row>
     <row r="120" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="2" t="s">
+      <c r="B120" s="1" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1629,12 +2418,12 @@
       </c>
     </row>
     <row r="122" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="2" t="s">
+      <c r="B122" s="1" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="123" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="2" t="s">
+      <c r="B123" s="1" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1649,7 +2438,7 @@
       </c>
     </row>
     <row r="126" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="1" t="s">
+      <c r="B126" s="2" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1659,7 +2448,7 @@
       </c>
     </row>
     <row r="128" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="2" t="s">
+      <c r="B128" s="1" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1674,12 +2463,12 @@
       </c>
     </row>
     <row r="131" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="2" t="s">
+      <c r="B131" s="1" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="132" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B132" s="1" t="s">
+      <c r="B132" s="2" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1693,7 +2482,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="2:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B135" s="1" t="s">
         <v>134</v>
       </c>
@@ -1744,7 +2533,7 @@
       </c>
     </row>
     <row r="145" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B145" s="2" t="s">
+      <c r="B145" s="1" t="s">
         <v>144</v>
       </c>
     </row>
@@ -1759,7 +2548,7 @@
       </c>
     </row>
     <row r="148" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B148" s="2" t="s">
+      <c r="B148" s="1" t="s">
         <v>147</v>
       </c>
     </row>
@@ -1768,7 +2557,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="2:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B150" s="1" t="s">
         <v>149</v>
       </c>
@@ -1779,12 +2568,12 @@
       </c>
     </row>
     <row r="152" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B152" s="2" t="s">
+      <c r="B152" s="1" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="153" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="2" t="s">
+      <c r="B153" s="1" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1793,7 +2582,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B155" s="1" t="s">
         <v>154</v>
       </c>
@@ -1808,7 +2597,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="2:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="1" t="s">
         <v>157</v>
       </c>
@@ -1839,7 +2628,7 @@
       </c>
     </row>
     <row r="164" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B164" s="2" t="s">
+      <c r="B164" s="1" t="s">
         <v>163</v>
       </c>
     </row>
@@ -1854,12 +2643,12 @@
       </c>
     </row>
     <row r="167" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B167" s="2" t="s">
+      <c r="B167" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="168" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B168" s="1" t="s">
+      <c r="B168" s="2" t="s">
         <v>167</v>
       </c>
     </row>
@@ -1873,12 +2662,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="2:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B171" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="2:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B172" s="1" t="s">
         <v>171</v>
       </c>
@@ -1904,7 +2693,7 @@
       </c>
     </row>
     <row r="177" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B177" s="1" t="s">
+      <c r="B177" s="2" t="s">
         <v>176</v>
       </c>
     </row>
@@ -1914,17 +2703,17 @@
       </c>
     </row>
     <row r="179" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B179" s="2" t="s">
+      <c r="B179" s="1" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="180" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B180" s="2" t="s">
+      <c r="B180" s="1" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="181" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B181" s="1" t="s">
+      <c r="B181" s="2" t="s">
         <v>180</v>
       </c>
     </row>
@@ -1949,7 +2738,7 @@
       </c>
     </row>
     <row r="186" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B186" s="2" t="s">
+      <c r="B186" s="1" t="s">
         <v>185</v>
       </c>
     </row>
@@ -1959,12 +2748,12 @@
       </c>
     </row>
     <row r="188" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B188" s="2" t="s">
+      <c r="B188" s="1" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="189" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B189" s="2" t="s">
+      <c r="B189" s="1" t="s">
         <v>188</v>
       </c>
     </row>
@@ -1973,12 +2762,12 @@
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B191" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B192" s="1" t="s">
         <v>191</v>
       </c>
@@ -1993,8 +2782,8 @@
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="2:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B195" s="1" t="s">
+    <row r="195" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B195" s="2" t="s">
         <v>194</v>
       </c>
     </row>
@@ -2004,7 +2793,7 @@
       </c>
     </row>
     <row r="197" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B197" s="2" t="s">
+      <c r="B197" s="1" t="s">
         <v>196</v>
       </c>
     </row>
@@ -2027,6 +2816,3276 @@
       <c r="B201" s="1" t="s">
         <v>200</v>
       </c>
+    </row>
+    <row r="202" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B202" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B203" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B204" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B205" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B206" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B207" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B208" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B209" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B210" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B211" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B212" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B213" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B214" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B215" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B216" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B217" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B218" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B219" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B220" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B221" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B222" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B223" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B224" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B225" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B226" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B227" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B228" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B229" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B230" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B231" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B232" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B233" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B234" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B235" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B236" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B237" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B238" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B239" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B240" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B241" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B242" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B243" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B244" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B245" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B246" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B247" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B248" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B249" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B250" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B251" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B252" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B253" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B254" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B255" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B256" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B257" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B258" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B259" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B260" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B261" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B262" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B263" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B264" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B265" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B266" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B267" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B268" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B269" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="270" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B270" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B271" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B272" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B273" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B274" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="275" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B275" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="276" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B276" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="277" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B277" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="278" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B278" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="279" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B279" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="280" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B280" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="281" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B281" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="282" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B282" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B283" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="284" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B284" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="285" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B285" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="286" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B286" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="287" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B287" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="288" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B288" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="289" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B289" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="290" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B290" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="291" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B291" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="292" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B292" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="293" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B293" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="294" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B294" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="295" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B295" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="296" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B296" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="297" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B297" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="298" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B298" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="299" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B299" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="300" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B300" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="301" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B301" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="302" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B302" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="303" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B303" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="304" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B304" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="305" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B305" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="306" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B306" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="307" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B307" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="308" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B308" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="309" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B309" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="310" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B310" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="311" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B311" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="312" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B312" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="313" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B313" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="314" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B314" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="315" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B315" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="316" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B316" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="317" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B317" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="318" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B318" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="319" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B319" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="320" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B320" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="321" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B321" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="322" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B322" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="323" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B323" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="324" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B324" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="325" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B325" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="326" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B326" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="327" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B327" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="328" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B328" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="329" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B329" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="330" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B330" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="331" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B331" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="332" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B332" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="333" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B333" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="334" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B334" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="335" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B335" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="336" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B336" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="337" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B337" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="338" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B338" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="339" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B339" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="340" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B340" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="341" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B341" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="342" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B342" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="343" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B343" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="344" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B344" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="345" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B345" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="346" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B346" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="347" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B347" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="348" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B348" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="349" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B349" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="350" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B350" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="351" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B351" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="352" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B352" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="353" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B353" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="354" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B354" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="355" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B355" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="356" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B356" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="357" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B357" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="358" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B358" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="359" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B359" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="360" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B360" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="361" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B361" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="362" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B362" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="363" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B363" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="364" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B364" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="365" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B365" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="366" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B366" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="367" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B367" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="368" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B368" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="369" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B369" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="370" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B370" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="371" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B371" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="372" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B372" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="373" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B373" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="374" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B374" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="375" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B375" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="376" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B376" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="377" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B377" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="378" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B378" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="379" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B379" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="380" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B380" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="381" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B381" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="382" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B382" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="383" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B383" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="384" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B384" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="385" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B385" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="386" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B386" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="387" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B387" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="388" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B388" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="389" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B389" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="390" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B390" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="391" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B391" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="392" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B392" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="393" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B393" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="394" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B394" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="395" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B395" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="396" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B396" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="397" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B397" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="398" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B398" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="399" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B399" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="400" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B400" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="401" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B401" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="402" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B402" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="403" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B403" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="404" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B404" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="405" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B405" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="406" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B406" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="407" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B407" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="408" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B408" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="409" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B409" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="410" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B410" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="411" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B411" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="412" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B412" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="413" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B413" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="414" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B414" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="415" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B415" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="416" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B416" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="417" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B417" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="418" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B418" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="419" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B419" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="420" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B420" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="421" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B421" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="422" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B422" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="423" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B423" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="424" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B424" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="425" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B425" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="426" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B426" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="427" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B427" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="428" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B428" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="429" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B429" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="430" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B430" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="431" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B431" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="432" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B432" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="433" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B433" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="434" spans="2:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B434" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="435" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B435" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="436" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B436" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="437" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B437" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="438" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B438" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="439" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B439" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="440" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B440" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="441" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B441" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="442" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B442" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="443" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B443" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="444" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B444" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="445" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B445" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="446" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B446" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="447" spans="2:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B447" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="448" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B448" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="449" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B449" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="450" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B450" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="451" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B451" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="452" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B452" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="453" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B453" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="454" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B454" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="455" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B455" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="456" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B456" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="457" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B457" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="458" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B458" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="459" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B459" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="460" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B460" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="461" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B461" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="462" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B462" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="463" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B463" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="464" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B464" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="465" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B465" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="466" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B466" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="467" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B467" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="468" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B468" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="469" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B469" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="470" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B470" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="471" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B471" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="472" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B472" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="473" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B473" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="474" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B474" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="475" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B475" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="476" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B476" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="477" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B477" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="478" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B478" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="479" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B479" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="480" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B480" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="481" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B481" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="482" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B482" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="483" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B483" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="484" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B484" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="485" spans="2:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B485" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="486" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B486" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="487" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B487" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="488" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B488" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="489" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B489" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="490" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B490" s="2"/>
+    </row>
+    <row r="491" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B491" s="1"/>
+    </row>
+    <row r="492" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B492" s="1"/>
+    </row>
+    <row r="493" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B493" s="1"/>
+    </row>
+    <row r="494" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B494" s="1"/>
+    </row>
+    <row r="495" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B495" s="1"/>
+    </row>
+    <row r="496" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B496" s="1"/>
+    </row>
+    <row r="497" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B497" s="2"/>
+    </row>
+    <row r="498" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B498" s="1"/>
+    </row>
+    <row r="499" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B499" s="1"/>
+    </row>
+    <row r="500" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B500" s="1"/>
+    </row>
+    <row r="501" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B501" s="1"/>
+    </row>
+    <row r="502" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B502" s="1"/>
+    </row>
+    <row r="503" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B503" s="2"/>
+    </row>
+    <row r="504" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B504" s="2"/>
+    </row>
+    <row r="505" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B505" s="1"/>
+    </row>
+    <row r="506" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B506" s="1"/>
+    </row>
+    <row r="507" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B507" s="1"/>
+    </row>
+    <row r="508" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B508" s="2"/>
+    </row>
+    <row r="509" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B509" s="2"/>
+    </row>
+    <row r="510" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B510" s="1"/>
+    </row>
+    <row r="511" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B511" s="1"/>
+    </row>
+    <row r="512" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B512" s="2"/>
+    </row>
+    <row r="513" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B513" s="1"/>
+    </row>
+    <row r="514" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B514" s="1"/>
+    </row>
+    <row r="515" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B515" s="1"/>
+    </row>
+    <row r="516" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B516" s="1"/>
+    </row>
+    <row r="517" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B517" s="1"/>
+    </row>
+    <row r="518" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B518" s="1"/>
+    </row>
+    <row r="519" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B519" s="1"/>
+    </row>
+    <row r="520" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B520" s="2"/>
+    </row>
+    <row r="521" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B521" s="2"/>
+    </row>
+    <row r="522" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B522" s="1"/>
+    </row>
+    <row r="523" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B523" s="1"/>
+    </row>
+    <row r="524" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B524" s="1"/>
+    </row>
+    <row r="525" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B525" s="1"/>
+    </row>
+    <row r="526" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B526" s="2"/>
+    </row>
+    <row r="527" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B527" s="1"/>
+    </row>
+    <row r="528" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B528" s="2"/>
+    </row>
+    <row r="529" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B529" s="1"/>
+    </row>
+    <row r="530" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B530" s="1"/>
+    </row>
+    <row r="531" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B531" s="1"/>
+    </row>
+    <row r="532" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B532" s="2"/>
+    </row>
+    <row r="533" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B533" s="1"/>
+    </row>
+    <row r="534" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B534" s="1"/>
+    </row>
+    <row r="535" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B535" s="1"/>
+    </row>
+    <row r="536" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B536" s="1"/>
+    </row>
+    <row r="537" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B537" s="1"/>
+    </row>
+    <row r="538" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B538" s="2"/>
+    </row>
+    <row r="539" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B539" s="1"/>
+    </row>
+    <row r="540" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B540" s="2"/>
+    </row>
+    <row r="541" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B541" s="1"/>
+    </row>
+    <row r="542" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B542" s="1"/>
+    </row>
+    <row r="543" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B543" s="1"/>
+    </row>
+    <row r="544" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B544" s="1"/>
+    </row>
+    <row r="545" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B545" s="2"/>
+    </row>
+    <row r="546" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B546" s="1"/>
+    </row>
+    <row r="547" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B547" s="1"/>
+    </row>
+    <row r="548" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B548" s="1"/>
+    </row>
+    <row r="549" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B549" s="1"/>
+    </row>
+    <row r="550" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B550" s="1"/>
+    </row>
+    <row r="551" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B551" s="1"/>
+    </row>
+    <row r="552" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B552" s="1"/>
+    </row>
+    <row r="553" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B553" s="1"/>
+    </row>
+    <row r="554" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B554" s="1"/>
+    </row>
+    <row r="555" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B555" s="2"/>
+    </row>
+    <row r="556" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B556" s="1"/>
+    </row>
+    <row r="557" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B557" s="1"/>
+    </row>
+    <row r="558" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B558" s="1"/>
+    </row>
+    <row r="559" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B559" s="1"/>
+    </row>
+    <row r="560" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B560" s="1"/>
+    </row>
+    <row r="561" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B561" s="1"/>
+    </row>
+    <row r="562" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B562" s="1"/>
+    </row>
+    <row r="563" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B563" s="1"/>
+    </row>
+    <row r="564" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B564" s="1"/>
+    </row>
+    <row r="565" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B565" s="1"/>
+    </row>
+    <row r="566" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B566" s="1"/>
+    </row>
+    <row r="567" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B567" s="1"/>
+    </row>
+    <row r="568" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B568" s="1"/>
+    </row>
+    <row r="569" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B569" s="1"/>
+    </row>
+    <row r="570" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B570" s="1"/>
+    </row>
+    <row r="571" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B571" s="1"/>
+    </row>
+    <row r="572" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B572" s="1"/>
+    </row>
+    <row r="573" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B573" s="1"/>
+    </row>
+    <row r="574" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B574" s="2"/>
+    </row>
+    <row r="575" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B575" s="1"/>
+    </row>
+    <row r="576" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B576" s="1"/>
+    </row>
+    <row r="577" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B577" s="1"/>
+    </row>
+    <row r="578" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B578" s="2"/>
+    </row>
+    <row r="579" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B579" s="1"/>
+    </row>
+    <row r="580" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B580" s="1"/>
+    </row>
+    <row r="581" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B581" s="1"/>
+    </row>
+    <row r="582" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B582" s="1"/>
+    </row>
+    <row r="583" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B583" s="2"/>
+    </row>
+    <row r="584" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B584" s="1"/>
+    </row>
+    <row r="585" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B585" s="1"/>
+    </row>
+    <row r="586" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B586" s="1"/>
+    </row>
+    <row r="587" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B587" s="1"/>
+    </row>
+    <row r="588" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B588" s="1"/>
+    </row>
+    <row r="589" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B589" s="1"/>
+    </row>
+    <row r="590" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B590" s="1"/>
+    </row>
+    <row r="591" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B591" s="1"/>
+    </row>
+    <row r="592" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B592" s="1"/>
+    </row>
+    <row r="593" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B593" s="1"/>
+    </row>
+    <row r="594" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B594" s="2"/>
+    </row>
+    <row r="595" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B595" s="2"/>
+    </row>
+    <row r="596" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B596" s="1"/>
+    </row>
+    <row r="597" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B597" s="1"/>
+    </row>
+    <row r="598" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B598" s="1"/>
+    </row>
+    <row r="599" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B599" s="2"/>
+    </row>
+    <row r="600" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B600" s="1"/>
+    </row>
+    <row r="601" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B601" s="1"/>
+    </row>
+    <row r="602" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B602" s="2"/>
+    </row>
+    <row r="603" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B603" s="1"/>
+    </row>
+    <row r="604" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B604" s="1"/>
+    </row>
+    <row r="605" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B605" s="1"/>
+    </row>
+    <row r="606" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B606" s="2"/>
+    </row>
+    <row r="607" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B607" s="1"/>
+    </row>
+    <row r="608" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B608" s="1"/>
+    </row>
+    <row r="609" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B609" s="1"/>
+    </row>
+    <row r="610" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B610" s="1"/>
+    </row>
+    <row r="611" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B611" s="1"/>
+    </row>
+    <row r="612" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B612" s="1"/>
+    </row>
+    <row r="613" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B613" s="1"/>
+    </row>
+    <row r="614" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B614" s="1"/>
+    </row>
+    <row r="615" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B615" s="1"/>
+    </row>
+    <row r="616" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B616" s="1"/>
+    </row>
+    <row r="617" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B617" s="1"/>
+    </row>
+    <row r="618" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B618" s="1"/>
+    </row>
+    <row r="619" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B619" s="1"/>
+    </row>
+    <row r="620" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B620" s="1"/>
+    </row>
+    <row r="621" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B621" s="1"/>
+    </row>
+    <row r="622" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B622" s="1"/>
+    </row>
+    <row r="623" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B623" s="2"/>
+    </row>
+    <row r="624" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B624" s="1"/>
+    </row>
+    <row r="625" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B625" s="1"/>
+    </row>
+    <row r="626" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B626" s="1"/>
+    </row>
+    <row r="627" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B627" s="1"/>
+    </row>
+    <row r="628" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B628" s="1"/>
+    </row>
+    <row r="629" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B629" s="1"/>
+    </row>
+    <row r="630" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B630" s="1"/>
+    </row>
+    <row r="631" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B631" s="2"/>
+    </row>
+    <row r="632" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B632" s="1"/>
+    </row>
+    <row r="633" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B633" s="2"/>
+    </row>
+    <row r="634" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B634" s="1"/>
+    </row>
+    <row r="635" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B635" s="2"/>
+    </row>
+    <row r="636" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B636" s="1"/>
+    </row>
+    <row r="637" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B637" s="2"/>
+    </row>
+    <row r="638" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B638" s="1"/>
+    </row>
+    <row r="639" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B639" s="1"/>
+    </row>
+    <row r="640" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B640" s="1"/>
+    </row>
+    <row r="641" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B641" s="2"/>
+    </row>
+    <row r="642" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B642" s="1"/>
+    </row>
+    <row r="643" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B643" s="1"/>
+    </row>
+    <row r="644" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B644" s="2"/>
+    </row>
+    <row r="645" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B645" s="1"/>
+    </row>
+    <row r="646" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B646" s="1"/>
+    </row>
+    <row r="647" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B647" s="1"/>
+    </row>
+    <row r="648" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B648" s="1"/>
+    </row>
+    <row r="649" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B649" s="1"/>
+    </row>
+    <row r="650" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B650" s="1"/>
+    </row>
+    <row r="651" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B651" s="1"/>
+    </row>
+    <row r="652" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B652" s="2"/>
+    </row>
+    <row r="653" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B653" s="1"/>
+    </row>
+    <row r="654" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B654" s="2"/>
+    </row>
+    <row r="655" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B655" s="1"/>
+    </row>
+    <row r="656" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B656" s="1"/>
+    </row>
+    <row r="657" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B657" s="1"/>
+    </row>
+    <row r="658" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B658" s="1"/>
+    </row>
+    <row r="659" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B659" s="1"/>
+    </row>
+    <row r="660" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B660" s="1"/>
+    </row>
+    <row r="661" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B661" s="2"/>
+    </row>
+    <row r="662" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B662" s="2"/>
+    </row>
+    <row r="663" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B663" s="2"/>
+    </row>
+    <row r="664" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B664" s="2"/>
+    </row>
+    <row r="665" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B665" s="1"/>
+    </row>
+    <row r="666" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B666" s="1"/>
+    </row>
+    <row r="667" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B667" s="1"/>
+    </row>
+    <row r="668" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B668" s="1"/>
+    </row>
+    <row r="669" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B669" s="1"/>
+    </row>
+    <row r="670" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B670" s="1"/>
+    </row>
+    <row r="671" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B671" s="1"/>
+    </row>
+    <row r="672" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B672" s="1"/>
+    </row>
+    <row r="673" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B673" s="1"/>
+    </row>
+    <row r="674" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B674" s="1"/>
+    </row>
+    <row r="675" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B675" s="2"/>
+    </row>
+    <row r="676" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B676" s="1"/>
+    </row>
+    <row r="677" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B677" s="1"/>
+    </row>
+    <row r="678" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B678" s="1"/>
+    </row>
+    <row r="679" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B679" s="1"/>
+    </row>
+    <row r="680" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B680" s="1"/>
+    </row>
+    <row r="681" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B681" s="1"/>
+    </row>
+    <row r="682" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B682" s="1"/>
+    </row>
+    <row r="683" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B683" s="1"/>
+    </row>
+    <row r="684" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B684" s="1"/>
+    </row>
+    <row r="685" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B685" s="1"/>
+    </row>
+    <row r="686" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B686" s="1"/>
+    </row>
+    <row r="687" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B687" s="1"/>
+    </row>
+    <row r="688" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B688" s="1"/>
+    </row>
+    <row r="689" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B689" s="1"/>
+    </row>
+    <row r="690" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B690" s="1"/>
+    </row>
+    <row r="691" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B691" s="1"/>
+    </row>
+    <row r="692" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B692" s="1"/>
+    </row>
+    <row r="693" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B693" s="1"/>
+    </row>
+    <row r="694" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B694" s="1"/>
+    </row>
+    <row r="695" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B695" s="1"/>
+    </row>
+    <row r="696" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B696" s="1"/>
+    </row>
+    <row r="697" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B697" s="1"/>
+    </row>
+    <row r="698" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B698" s="1"/>
+    </row>
+    <row r="699" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B699" s="1"/>
+    </row>
+    <row r="700" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B700" s="1"/>
+    </row>
+    <row r="701" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B701" s="1"/>
+    </row>
+    <row r="702" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B702" s="1"/>
+    </row>
+    <row r="703" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B703" s="1"/>
+    </row>
+    <row r="704" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B704" s="1"/>
+    </row>
+    <row r="705" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B705" s="1"/>
+    </row>
+    <row r="706" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B706" s="1"/>
+    </row>
+    <row r="707" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B707" s="1"/>
+    </row>
+    <row r="708" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B708" s="1"/>
+    </row>
+    <row r="709" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B709" s="1"/>
+    </row>
+    <row r="710" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B710" s="1"/>
+    </row>
+    <row r="711" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B711" s="1"/>
+    </row>
+    <row r="712" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B712" s="1"/>
+    </row>
+    <row r="713" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B713" s="1"/>
+    </row>
+    <row r="714" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B714" s="1"/>
+    </row>
+    <row r="715" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B715" s="1"/>
+    </row>
+    <row r="716" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B716" s="1"/>
+    </row>
+    <row r="717" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B717" s="1"/>
+    </row>
+    <row r="718" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B718" s="1"/>
+    </row>
+    <row r="719" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B719" s="1"/>
+    </row>
+    <row r="720" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B720" s="1"/>
+    </row>
+    <row r="721" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B721" s="1"/>
+    </row>
+    <row r="722" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B722" s="1"/>
+    </row>
+    <row r="723" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B723" s="1"/>
+    </row>
+    <row r="724" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B724" s="1"/>
+    </row>
+    <row r="725" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B725" s="1"/>
+    </row>
+    <row r="726" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B726" s="1"/>
+    </row>
+    <row r="727" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B727" s="1"/>
+    </row>
+    <row r="728" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B728" s="1"/>
+    </row>
+    <row r="729" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B729" s="1"/>
+    </row>
+    <row r="730" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B730" s="1"/>
+    </row>
+    <row r="731" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B731" s="1"/>
+    </row>
+    <row r="732" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B732" s="1"/>
+    </row>
+    <row r="733" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B733" s="1"/>
+    </row>
+    <row r="734" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B734" s="1"/>
+    </row>
+    <row r="735" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B735" s="1"/>
+    </row>
+    <row r="736" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B736" s="1"/>
+    </row>
+    <row r="737" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B737" s="1"/>
+    </row>
+    <row r="738" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B738" s="1"/>
+    </row>
+    <row r="739" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B739" s="1"/>
+    </row>
+    <row r="740" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B740" s="1"/>
+    </row>
+    <row r="741" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B741" s="1"/>
+    </row>
+    <row r="742" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B742" s="1"/>
+    </row>
+    <row r="743" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B743" s="1"/>
+    </row>
+    <row r="744" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B744" s="1"/>
+    </row>
+    <row r="745" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B745" s="1"/>
+    </row>
+    <row r="746" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B746" s="1"/>
+    </row>
+    <row r="747" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B747" s="1"/>
+    </row>
+    <row r="748" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B748" s="1"/>
+    </row>
+    <row r="749" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B749" s="1"/>
+    </row>
+    <row r="750" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B750" s="1"/>
+    </row>
+    <row r="751" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B751" s="1"/>
+    </row>
+    <row r="752" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B752" s="1"/>
+    </row>
+    <row r="753" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B753" s="1"/>
+    </row>
+    <row r="754" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B754" s="1"/>
+    </row>
+    <row r="755" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B755" s="1"/>
+    </row>
+    <row r="756" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B756" s="1"/>
+    </row>
+    <row r="757" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B757" s="1"/>
+    </row>
+    <row r="758" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B758" s="1"/>
+    </row>
+    <row r="759" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B759" s="1"/>
+    </row>
+    <row r="760" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B760" s="1"/>
+    </row>
+    <row r="761" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B761" s="1"/>
+    </row>
+    <row r="762" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B762" s="1"/>
+    </row>
+    <row r="763" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B763" s="1"/>
+    </row>
+    <row r="764" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B764" s="1"/>
+    </row>
+    <row r="765" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B765" s="1"/>
+    </row>
+    <row r="766" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B766" s="1"/>
+    </row>
+    <row r="767" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B767" s="1"/>
+    </row>
+    <row r="768" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B768" s="1"/>
+    </row>
+    <row r="769" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B769" s="1"/>
+    </row>
+    <row r="770" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B770" s="1"/>
+    </row>
+    <row r="771" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B771" s="1"/>
+    </row>
+    <row r="772" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B772" s="1"/>
+    </row>
+    <row r="773" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B773" s="1"/>
+    </row>
+    <row r="774" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B774" s="1"/>
+    </row>
+    <row r="775" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B775" s="1"/>
+    </row>
+    <row r="776" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B776" s="1"/>
+    </row>
+    <row r="777" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B777" s="1"/>
+    </row>
+    <row r="778" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B778" s="1"/>
+    </row>
+    <row r="779" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B779" s="1"/>
+    </row>
+    <row r="780" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B780" s="1"/>
+    </row>
+    <row r="781" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B781" s="1"/>
+    </row>
+    <row r="782" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B782" s="1"/>
+    </row>
+    <row r="783" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B783" s="1"/>
+    </row>
+    <row r="784" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B784" s="1"/>
+    </row>
+    <row r="785" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B785" s="1"/>
+    </row>
+    <row r="786" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B786" s="1"/>
+    </row>
+    <row r="787" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B787" s="1"/>
+    </row>
+    <row r="788" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B788" s="1"/>
+    </row>
+    <row r="789" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B789" s="1"/>
+    </row>
+    <row r="790" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B790" s="1"/>
+    </row>
+    <row r="791" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B791" s="1"/>
+    </row>
+    <row r="792" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B792" s="1"/>
+    </row>
+    <row r="793" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B793" s="1"/>
+    </row>
+    <row r="794" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B794" s="1"/>
+    </row>
+    <row r="795" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B795" s="1"/>
+    </row>
+    <row r="796" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B796" s="1"/>
+    </row>
+    <row r="797" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B797" s="1"/>
+    </row>
+    <row r="798" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B798" s="1"/>
+    </row>
+    <row r="799" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B799" s="1"/>
+    </row>
+    <row r="800" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B800" s="1"/>
+    </row>
+    <row r="801" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B801" s="1"/>
+    </row>
+    <row r="802" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B802" s="1"/>
+    </row>
+    <row r="803" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B803" s="1"/>
+    </row>
+    <row r="804" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B804" s="1"/>
+    </row>
+    <row r="805" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B805" s="1"/>
+    </row>
+    <row r="806" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B806" s="1"/>
+    </row>
+    <row r="807" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B807" s="1"/>
+    </row>
+    <row r="808" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B808" s="1"/>
+    </row>
+    <row r="809" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B809" s="1"/>
+    </row>
+    <row r="810" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B810" s="1"/>
+    </row>
+    <row r="811" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B811" s="1"/>
+    </row>
+    <row r="812" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B812" s="1"/>
+    </row>
+    <row r="813" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B813" s="1"/>
+    </row>
+    <row r="814" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B814" s="1"/>
+    </row>
+    <row r="815" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B815" s="1"/>
+    </row>
+    <row r="816" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B816" s="1"/>
+    </row>
+    <row r="817" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B817" s="1"/>
+    </row>
+    <row r="818" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B818" s="1"/>
+    </row>
+    <row r="819" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B819" s="1"/>
+    </row>
+    <row r="820" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B820" s="1"/>
+    </row>
+    <row r="821" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B821" s="1"/>
+    </row>
+    <row r="822" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B822" s="1"/>
+    </row>
+    <row r="823" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B823" s="1"/>
+    </row>
+    <row r="824" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B824" s="1"/>
+    </row>
+    <row r="825" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B825" s="1"/>
+    </row>
+    <row r="826" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B826" s="1"/>
+    </row>
+    <row r="827" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B827" s="1"/>
+    </row>
+    <row r="828" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B828" s="1"/>
+    </row>
+    <row r="829" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B829" s="1"/>
+    </row>
+    <row r="830" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B830" s="1"/>
+    </row>
+    <row r="831" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B831" s="1"/>
+    </row>
+    <row r="832" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B832" s="1"/>
+    </row>
+    <row r="833" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B833" s="1"/>
+    </row>
+    <row r="834" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B834" s="1"/>
+    </row>
+    <row r="835" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B835" s="1"/>
+    </row>
+    <row r="836" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B836" s="1"/>
+    </row>
+    <row r="837" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B837" s="1"/>
+    </row>
+    <row r="838" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B838" s="1"/>
+    </row>
+    <row r="839" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B839" s="1"/>
+    </row>
+    <row r="840" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B840" s="1"/>
+    </row>
+    <row r="841" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B841" s="1"/>
+    </row>
+    <row r="842" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B842" s="1"/>
+    </row>
+    <row r="843" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B843" s="1"/>
+    </row>
+    <row r="844" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B844" s="1"/>
+    </row>
+    <row r="845" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B845" s="1"/>
+    </row>
+    <row r="846" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B846" s="1"/>
+    </row>
+    <row r="847" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B847" s="1"/>
+    </row>
+    <row r="848" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B848" s="1"/>
+    </row>
+    <row r="849" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B849" s="1"/>
+    </row>
+    <row r="850" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B850" s="1"/>
+    </row>
+    <row r="851" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B851" s="1"/>
+    </row>
+    <row r="852" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B852" s="1"/>
+    </row>
+    <row r="853" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B853" s="1"/>
+    </row>
+    <row r="854" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B854" s="1"/>
+    </row>
+    <row r="855" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B855" s="1"/>
+    </row>
+    <row r="856" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B856" s="1"/>
+    </row>
+    <row r="857" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B857" s="1"/>
+    </row>
+    <row r="858" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B858" s="1"/>
+    </row>
+    <row r="859" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B859" s="1"/>
+    </row>
+    <row r="860" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B860" s="1"/>
+    </row>
+    <row r="861" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B861" s="1"/>
+    </row>
+    <row r="862" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B862" s="1"/>
+    </row>
+    <row r="863" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B863" s="1"/>
+    </row>
+    <row r="864" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B864" s="1"/>
+    </row>
+    <row r="865" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B865" s="1"/>
+    </row>
+    <row r="866" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B866" s="1"/>
+    </row>
+    <row r="867" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B867" s="1"/>
+    </row>
+    <row r="868" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B868" s="1"/>
+    </row>
+    <row r="869" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B869" s="1"/>
+    </row>
+    <row r="870" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B870" s="1"/>
+    </row>
+    <row r="871" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B871" s="1"/>
+    </row>
+    <row r="872" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B872" s="1"/>
+    </row>
+    <row r="873" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B873" s="1"/>
+    </row>
+    <row r="874" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B874" s="1"/>
+    </row>
+    <row r="875" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B875" s="1"/>
+    </row>
+    <row r="876" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B876" s="1"/>
+    </row>
+    <row r="877" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B877" s="1"/>
+    </row>
+    <row r="878" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B878" s="1"/>
+    </row>
+    <row r="879" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B879" s="1"/>
+    </row>
+    <row r="880" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B880" s="1"/>
+    </row>
+    <row r="881" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B881" s="1"/>
+    </row>
+    <row r="882" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B882" s="1"/>
+    </row>
+    <row r="883" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B883" s="1"/>
+    </row>
+    <row r="884" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B884" s="1"/>
+    </row>
+    <row r="885" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B885" s="1"/>
+    </row>
+    <row r="886" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B886" s="1"/>
+    </row>
+    <row r="887" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B887" s="1"/>
+    </row>
+    <row r="888" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B888" s="1"/>
+    </row>
+    <row r="889" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B889" s="1"/>
+    </row>
+    <row r="890" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B890" s="1"/>
+    </row>
+    <row r="891" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B891" s="1"/>
+    </row>
+    <row r="892" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B892" s="1"/>
+    </row>
+    <row r="893" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B893" s="1"/>
+    </row>
+    <row r="894" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B894" s="1"/>
+    </row>
+    <row r="895" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B895" s="1"/>
+    </row>
+    <row r="896" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B896" s="1"/>
+    </row>
+    <row r="897" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B897" s="1"/>
+    </row>
+    <row r="898" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B898" s="1"/>
+    </row>
+    <row r="899" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B899" s="1"/>
+    </row>
+    <row r="900" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B900" s="1"/>
+    </row>
+    <row r="901" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B901" s="1"/>
+    </row>
+    <row r="902" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B902" s="1"/>
+    </row>
+    <row r="903" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B903" s="1"/>
+    </row>
+    <row r="904" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B904" s="1"/>
+    </row>
+    <row r="905" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B905" s="1"/>
+    </row>
+    <row r="906" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B906" s="1"/>
+    </row>
+    <row r="907" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B907" s="1"/>
+    </row>
+    <row r="908" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B908" s="1"/>
+    </row>
+    <row r="909" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B909" s="1"/>
+    </row>
+    <row r="910" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B910" s="1"/>
+    </row>
+    <row r="911" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B911" s="1"/>
+    </row>
+    <row r="912" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B912" s="1"/>
+    </row>
+    <row r="913" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B913" s="1"/>
+    </row>
+    <row r="914" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B914" s="1"/>
+    </row>
+    <row r="915" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B915" s="1"/>
+    </row>
+    <row r="916" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B916" s="1"/>
+    </row>
+    <row r="917" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B917" s="1"/>
+    </row>
+    <row r="918" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B918" s="1"/>
+    </row>
+    <row r="919" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B919" s="1"/>
+    </row>
+    <row r="920" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B920" s="1"/>
+    </row>
+    <row r="921" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B921" s="1"/>
+    </row>
+    <row r="922" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B922" s="1"/>
+    </row>
+    <row r="923" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B923" s="1"/>
+    </row>
+    <row r="924" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B924" s="1"/>
+    </row>
+    <row r="925" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B925" s="1"/>
+    </row>
+    <row r="926" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B926" s="1"/>
+    </row>
+    <row r="927" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B927" s="1"/>
+    </row>
+    <row r="928" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B928" s="1"/>
+    </row>
+    <row r="929" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B929" s="1"/>
+    </row>
+    <row r="930" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B930" s="1"/>
+    </row>
+    <row r="931" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B931" s="1"/>
+    </row>
+    <row r="932" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B932" s="1"/>
+    </row>
+    <row r="933" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B933" s="1"/>
+    </row>
+    <row r="934" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B934" s="1"/>
+    </row>
+    <row r="935" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B935" s="1"/>
+    </row>
+    <row r="936" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B936" s="1"/>
+    </row>
+    <row r="937" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B937" s="1"/>
+    </row>
+    <row r="938" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B938" s="1"/>
+    </row>
+    <row r="939" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B939" s="1"/>
+    </row>
+    <row r="940" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B940" s="1"/>
+    </row>
+    <row r="941" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B941" s="1"/>
+    </row>
+    <row r="942" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B942" s="1"/>
+    </row>
+    <row r="943" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B943" s="1"/>
+    </row>
+    <row r="944" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B944" s="1"/>
+    </row>
+    <row r="945" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B945" s="1"/>
+    </row>
+    <row r="946" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B946" s="1"/>
+    </row>
+    <row r="947" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B947" s="1"/>
+    </row>
+    <row r="948" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B948" s="1"/>
+    </row>
+    <row r="949" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B949" s="1"/>
+    </row>
+    <row r="950" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B950" s="1"/>
+    </row>
+    <row r="951" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B951" s="1"/>
+    </row>
+    <row r="952" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B952" s="1"/>
+    </row>
+    <row r="953" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B953" s="1"/>
+    </row>
+    <row r="954" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B954" s="1"/>
+    </row>
+    <row r="955" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B955" s="1"/>
+    </row>
+    <row r="956" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B956" s="1"/>
+    </row>
+    <row r="957" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B957" s="1"/>
+    </row>
+    <row r="958" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B958" s="1"/>
+    </row>
+    <row r="959" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B959" s="1"/>
+    </row>
+    <row r="960" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B960" s="1"/>
+    </row>
+    <row r="961" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B961" s="1"/>
+    </row>
+    <row r="962" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B962" s="1"/>
+    </row>
+    <row r="963" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B963" s="1"/>
+    </row>
+    <row r="964" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B964" s="1"/>
+    </row>
+    <row r="965" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B965" s="1"/>
+    </row>
+    <row r="966" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B966" s="1"/>
+    </row>
+    <row r="967" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B967" s="1"/>
+    </row>
+    <row r="968" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B968" s="1"/>
+    </row>
+    <row r="969" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B969" s="1"/>
+    </row>
+    <row r="970" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B970" s="1"/>
+    </row>
+    <row r="971" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B971" s="1"/>
+    </row>
+    <row r="972" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B972" s="1"/>
+    </row>
+    <row r="973" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B973" s="1"/>
+    </row>
+    <row r="974" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B974" s="1"/>
+    </row>
+    <row r="975" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B975" s="1"/>
+    </row>
+    <row r="976" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B976" s="1"/>
+    </row>
+    <row r="977" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B977" s="1"/>
+    </row>
+    <row r="978" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B978" s="1"/>
+    </row>
+    <row r="979" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B979" s="1"/>
+    </row>
+    <row r="980" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B980" s="1"/>
+    </row>
+    <row r="981" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B981" s="1"/>
+    </row>
+    <row r="982" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B982" s="1"/>
+    </row>
+    <row r="983" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B983" s="1"/>
+    </row>
+    <row r="984" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B984" s="1"/>
+    </row>
+    <row r="985" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B985" s="1"/>
+    </row>
+    <row r="986" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B986" s="1"/>
+    </row>
+    <row r="987" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B987" s="1"/>
+    </row>
+    <row r="988" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B988" s="1"/>
+    </row>
+    <row r="989" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B989" s="1"/>
+    </row>
+    <row r="990" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B990" s="1"/>
+    </row>
+    <row r="991" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B991" s="1"/>
+    </row>
+    <row r="992" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B992" s="1"/>
+    </row>
+    <row r="993" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B993" s="1"/>
+    </row>
+    <row r="994" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B994" s="1"/>
+    </row>
+    <row r="995" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B995" s="1"/>
+    </row>
+    <row r="996" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B996" s="1"/>
+    </row>
+    <row r="997" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B997" s="1"/>
+    </row>
+    <row r="998" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B998" s="1"/>
+    </row>
+    <row r="999" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B999" s="1"/>
+    </row>
+    <row r="1000" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1000" s="1"/>
+    </row>
+    <row r="1001" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1001" s="1"/>
+    </row>
+    <row r="1002" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1002" s="1"/>
+    </row>
+    <row r="1003" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1003" s="1"/>
+    </row>
+    <row r="1004" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1004" s="1"/>
+    </row>
+    <row r="1005" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1005" s="1"/>
+    </row>
+    <row r="1006" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1006" s="1"/>
+    </row>
+    <row r="1007" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1007" s="1"/>
+    </row>
+    <row r="1008" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1008" s="1"/>
+    </row>
+    <row r="1009" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1009" s="1"/>
+    </row>
+    <row r="1010" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1010" s="1"/>
+    </row>
+    <row r="1011" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1011" s="1"/>
+    </row>
+    <row r="1012" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1012" s="1"/>
+    </row>
+    <row r="1013" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1013" s="1"/>
+    </row>
+    <row r="1014" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1014" s="1"/>
+    </row>
+    <row r="1015" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1015" s="1"/>
+    </row>
+    <row r="1016" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1016" s="1"/>
+    </row>
+    <row r="1017" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1017" s="1"/>
+    </row>
+    <row r="1018" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1018" s="1"/>
+    </row>
+    <row r="1019" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1019" s="1"/>
+    </row>
+    <row r="1020" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1020" s="1"/>
+    </row>
+    <row r="1021" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1021" s="1"/>
+    </row>
+    <row r="1022" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1022" s="1"/>
+    </row>
+    <row r="1023" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1023" s="1"/>
+    </row>
+    <row r="1024" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1024" s="1"/>
+    </row>
+    <row r="1025" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1025" s="1"/>
+    </row>
+    <row r="1026" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1026" s="1"/>
+    </row>
+    <row r="1027" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1027" s="1"/>
+    </row>
+    <row r="1028" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1028" s="1"/>
+    </row>
+    <row r="1029" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1029" s="1"/>
+    </row>
+    <row r="1030" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1030" s="1"/>
+    </row>
+    <row r="1031" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1031" s="1"/>
+    </row>
+    <row r="1032" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1032" s="1"/>
+    </row>
+    <row r="1033" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1033" s="1"/>
+    </row>
+    <row r="1034" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1034" s="1"/>
+    </row>
+    <row r="1035" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1035" s="1"/>
+    </row>
+    <row r="1036" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1036" s="1"/>
+    </row>
+    <row r="1037" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1037" s="1"/>
+    </row>
+    <row r="1038" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1038" s="1"/>
+    </row>
+    <row r="1039" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1039" s="1"/>
+    </row>
+    <row r="1040" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1040" s="1"/>
+    </row>
+    <row r="1041" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1041" s="1"/>
+    </row>
+    <row r="1042" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1042" s="1"/>
+    </row>
+    <row r="1043" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1043" s="1"/>
+    </row>
+    <row r="1044" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1044" s="1"/>
+    </row>
+    <row r="1045" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1045" s="1"/>
+    </row>
+    <row r="1046" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1046" s="1"/>
+    </row>
+    <row r="1047" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1047" s="1"/>
+    </row>
+    <row r="1048" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1048" s="1"/>
+    </row>
+    <row r="1049" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1049" s="1"/>
+    </row>
+    <row r="1050" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1050" s="1"/>
+    </row>
+    <row r="1051" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1051" s="1"/>
+    </row>
+    <row r="1052" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1052" s="1"/>
+    </row>
+    <row r="1053" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1053" s="1"/>
+    </row>
+    <row r="1054" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1054" s="1"/>
+    </row>
+    <row r="1055" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1055" s="1"/>
+    </row>
+    <row r="1056" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1056" s="1"/>
+    </row>
+    <row r="1057" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1057" s="1"/>
+    </row>
+    <row r="1058" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1058" s="1"/>
+    </row>
+    <row r="1059" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1059" s="1"/>
+    </row>
+    <row r="1060" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1060" s="1"/>
+    </row>
+    <row r="1061" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1061" s="1"/>
+    </row>
+    <row r="1062" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1062" s="1"/>
+    </row>
+    <row r="1063" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1063" s="1"/>
+    </row>
+    <row r="1064" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1064" s="1"/>
+    </row>
+    <row r="1065" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1065" s="1"/>
+    </row>
+    <row r="1066" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1066" s="1"/>
+    </row>
+    <row r="1067" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1067" s="1"/>
+    </row>
+    <row r="1068" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1068" s="1"/>
+    </row>
+    <row r="1069" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1069" s="1"/>
+    </row>
+    <row r="1070" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1070" s="1"/>
+    </row>
+    <row r="1071" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1071" s="1"/>
+    </row>
+    <row r="1072" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1072" s="1"/>
+    </row>
+    <row r="1073" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1073" s="1"/>
+    </row>
+    <row r="1074" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1074" s="1"/>
+    </row>
+    <row r="1075" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1075" s="1"/>
+    </row>
+    <row r="1076" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1076" s="1"/>
+    </row>
+    <row r="1077" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1077" s="1"/>
+    </row>
+    <row r="1078" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1078" s="1"/>
+    </row>
+    <row r="1079" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1079" s="1"/>
+    </row>
+    <row r="1080" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1080" s="1"/>
+    </row>
+    <row r="1081" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1081" s="1"/>
+    </row>
+    <row r="1082" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1082" s="1"/>
+    </row>
+    <row r="1083" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1083" s="1"/>
+    </row>
+    <row r="1084" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1084" s="1"/>
+    </row>
+    <row r="1085" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1085" s="1"/>
+    </row>
+    <row r="1086" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1086" s="1"/>
+    </row>
+    <row r="1087" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1087" s="1"/>
+    </row>
+    <row r="1088" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1088" s="1"/>
+    </row>
+    <row r="1089" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1089" s="1"/>
+    </row>
+    <row r="1090" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1090" s="1"/>
+    </row>
+    <row r="1091" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1091" s="1"/>
+    </row>
+    <row r="1092" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1092" s="1"/>
+    </row>
+    <row r="1093" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1093" s="1"/>
+    </row>
+    <row r="1094" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1094" s="1"/>
+    </row>
+    <row r="1095" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1095" s="1"/>
+    </row>
+    <row r="1096" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1096" s="1"/>
+    </row>
+    <row r="1097" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1097" s="1"/>
+    </row>
+    <row r="1098" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1098" s="1"/>
+    </row>
+    <row r="1099" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1099" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
